--- a/deathmapdata.xlsx
+++ b/deathmapdata.xlsx
@@ -1524,7 +1524,7 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>2533</v>
+        <v>2535</v>
       </c>
       <c r="C2" t="s">
         <v>190</v>
@@ -1535,7 +1535,7 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>2335</v>
+        <v>2337</v>
       </c>
       <c r="C3" t="s">
         <v>191</v>
@@ -1546,7 +1546,7 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>3144</v>
+        <v>3148</v>
       </c>
       <c r="C4" t="s">
         <v>192</v>
@@ -1557,7 +1557,7 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C5" t="s">
         <v>193</v>
@@ -1568,7 +1568,7 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="C6" t="s">
         <v>194</v>
@@ -1590,7 +1590,7 @@
         <v>9</v>
       </c>
       <c r="B8">
-        <v>58925</v>
+        <v>59084</v>
       </c>
       <c r="C8" t="s">
         <v>196</v>
@@ -1601,7 +1601,7 @@
         <v>10</v>
       </c>
       <c r="B9">
-        <v>3817</v>
+        <v>3835</v>
       </c>
       <c r="C9" t="s">
         <v>197</v>
@@ -1623,7 +1623,7 @@
         <v>12</v>
       </c>
       <c r="B11">
-        <v>9813</v>
+        <v>9843</v>
       </c>
       <c r="C11" t="s">
         <v>199</v>
@@ -1634,7 +1634,7 @@
         <v>13</v>
       </c>
       <c r="B12">
-        <v>4045</v>
+        <v>4077</v>
       </c>
       <c r="C12" t="s">
         <v>200</v>
@@ -1645,7 +1645,7 @@
         <v>14</v>
       </c>
       <c r="B13">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="C13" t="s">
         <v>201</v>
@@ -1656,7 +1656,7 @@
         <v>15</v>
       </c>
       <c r="B14">
-        <v>574</v>
+        <v>581</v>
       </c>
       <c r="C14" t="s">
         <v>202</v>
@@ -1667,7 +1667,7 @@
         <v>16</v>
       </c>
       <c r="B15">
-        <v>10081</v>
+        <v>10182</v>
       </c>
       <c r="C15" t="s">
         <v>203</v>
@@ -1689,7 +1689,7 @@
         <v>18</v>
       </c>
       <c r="B17">
-        <v>2393</v>
+        <v>2403</v>
       </c>
       <c r="C17" t="s">
         <v>205</v>
@@ -1700,7 +1700,7 @@
         <v>19</v>
       </c>
       <c r="B18">
-        <v>23636</v>
+        <v>23681</v>
       </c>
       <c r="C18" t="s">
         <v>206</v>
@@ -1744,7 +1744,7 @@
         <v>23</v>
       </c>
       <c r="B22">
-        <v>12603</v>
+        <v>12625</v>
       </c>
       <c r="C22" t="s">
         <v>210</v>
@@ -1755,7 +1755,7 @@
         <v>24</v>
       </c>
       <c r="B23">
-        <v>7702</v>
+        <v>7788</v>
       </c>
       <c r="C23" t="s">
         <v>211</v>
@@ -1777,7 +1777,7 @@
         <v>26</v>
       </c>
       <c r="B25">
-        <v>365444</v>
+        <v>368749</v>
       </c>
       <c r="C25" t="s">
         <v>213</v>
@@ -1799,7 +1799,7 @@
         <v>28</v>
       </c>
       <c r="B27">
-        <v>14979</v>
+        <v>15100</v>
       </c>
       <c r="C27" t="s">
         <v>215</v>
@@ -1843,7 +1843,7 @@
         <v>32</v>
       </c>
       <c r="B31">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C31" t="s">
         <v>219</v>
@@ -1854,7 +1854,7 @@
         <v>33</v>
       </c>
       <c r="B32">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C32" t="s">
         <v>220</v>
@@ -1876,7 +1876,7 @@
         <v>35</v>
       </c>
       <c r="B34">
-        <v>23482</v>
+        <v>23531</v>
       </c>
       <c r="C34" t="s">
         <v>222</v>
@@ -1909,7 +1909,7 @@
         <v>38</v>
       </c>
       <c r="B37">
-        <v>24766</v>
+        <v>24923</v>
       </c>
       <c r="C37" t="s">
         <v>225</v>
@@ -1931,7 +1931,7 @@
         <v>40</v>
       </c>
       <c r="B39">
-        <v>67199</v>
+        <v>67564</v>
       </c>
       <c r="C39" t="s">
         <v>227</v>
@@ -1975,7 +1975,7 @@
         <v>44</v>
       </c>
       <c r="B43">
-        <v>3065</v>
+        <v>3071</v>
       </c>
       <c r="C43" t="s">
         <v>231</v>
@@ -1986,7 +1986,7 @@
         <v>45</v>
       </c>
       <c r="B44">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C44" t="s">
         <v>232</v>
@@ -1997,7 +1997,7 @@
         <v>46</v>
       </c>
       <c r="B45">
-        <v>6442</v>
+        <v>6486</v>
       </c>
       <c r="C45" t="s">
         <v>233</v>
@@ -2008,7 +2008,7 @@
         <v>47</v>
       </c>
       <c r="B46">
-        <v>491</v>
+        <v>500</v>
       </c>
       <c r="C46" t="s">
         <v>234</v>
@@ -2019,7 +2019,7 @@
         <v>48</v>
       </c>
       <c r="B47">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C47" t="s">
         <v>235</v>
@@ -2030,7 +2030,7 @@
         <v>49</v>
       </c>
       <c r="B48">
-        <v>28229</v>
+        <v>28317</v>
       </c>
       <c r="C48" t="s">
         <v>236</v>
@@ -2041,7 +2041,7 @@
         <v>50</v>
       </c>
       <c r="B49">
-        <v>2450</v>
+        <v>2453</v>
       </c>
       <c r="C49" t="s">
         <v>237</v>
@@ -2074,7 +2074,7 @@
         <v>53</v>
       </c>
       <c r="B52">
-        <v>3405</v>
+        <v>3410</v>
       </c>
       <c r="C52" t="s">
         <v>240</v>
@@ -2085,7 +2085,7 @@
         <v>54</v>
       </c>
       <c r="B53">
-        <v>17489</v>
+        <v>17528</v>
       </c>
       <c r="C53" t="s">
         <v>241</v>
@@ -2096,7 +2096,7 @@
         <v>55</v>
       </c>
       <c r="B54">
-        <v>12611</v>
+        <v>12653</v>
       </c>
       <c r="C54" t="s">
         <v>242</v>
@@ -2107,7 +2107,7 @@
         <v>56</v>
       </c>
       <c r="B55">
-        <v>2064</v>
+        <v>2068</v>
       </c>
       <c r="C55" t="s">
         <v>243</v>
@@ -2140,7 +2140,7 @@
         <v>59</v>
       </c>
       <c r="B58">
-        <v>1064</v>
+        <v>1070</v>
       </c>
       <c r="C58" t="s">
         <v>246</v>
@@ -2162,7 +2162,7 @@
         <v>61</v>
       </c>
       <c r="B60">
-        <v>3285</v>
+        <v>3300</v>
       </c>
       <c r="C60" t="s">
         <v>248</v>
@@ -2184,7 +2184,7 @@
         <v>63</v>
       </c>
       <c r="B62">
-        <v>885</v>
+        <v>887</v>
       </c>
       <c r="C62" t="s">
         <v>250</v>
@@ -2195,7 +2195,7 @@
         <v>64</v>
       </c>
       <c r="B63">
-        <v>100232</v>
+        <v>100563</v>
       </c>
       <c r="C63" t="s">
         <v>251</v>
@@ -2228,7 +2228,7 @@
         <v>67</v>
       </c>
       <c r="B66">
-        <v>3908</v>
+        <v>3916</v>
       </c>
       <c r="C66" t="s">
         <v>254</v>
@@ -2239,7 +2239,7 @@
         <v>68</v>
       </c>
       <c r="B67">
-        <v>79672</v>
+        <v>79894</v>
       </c>
       <c r="C67" t="s">
         <v>255</v>
@@ -2261,7 +2261,7 @@
         <v>70</v>
       </c>
       <c r="B69">
-        <v>9239</v>
+        <v>9330</v>
       </c>
       <c r="C69" t="s">
         <v>257</v>
@@ -2283,7 +2283,7 @@
         <v>72</v>
       </c>
       <c r="B71">
-        <v>7120</v>
+        <v>7160</v>
       </c>
       <c r="C71" t="s">
         <v>259</v>
@@ -2294,7 +2294,7 @@
         <v>73</v>
       </c>
       <c r="B72">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C72" t="s">
         <v>260</v>
@@ -2316,7 +2316,7 @@
         <v>75</v>
       </c>
       <c r="B74">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="C74" t="s">
         <v>262</v>
@@ -2338,7 +2338,7 @@
         <v>77</v>
       </c>
       <c r="B76">
-        <v>4929</v>
+        <v>4934</v>
       </c>
       <c r="C76" t="s">
         <v>264</v>
@@ -2349,7 +2349,7 @@
         <v>78</v>
       </c>
       <c r="B77">
-        <v>24521</v>
+        <v>24762</v>
       </c>
       <c r="C77" t="s">
         <v>265</v>
@@ -2371,7 +2371,7 @@
         <v>80</v>
       </c>
       <c r="B79">
-        <v>174308</v>
+        <v>175649</v>
       </c>
       <c r="C79" t="s">
         <v>267</v>
@@ -2382,7 +2382,7 @@
         <v>81</v>
       </c>
       <c r="B80">
-        <v>43073</v>
+        <v>43196</v>
       </c>
       <c r="C80" t="s">
         <v>268</v>
@@ -2393,7 +2393,7 @@
         <v>82</v>
       </c>
       <c r="B81">
-        <v>65680</v>
+        <v>66008</v>
       </c>
       <c r="C81" t="s">
         <v>269</v>
@@ -2404,7 +2404,7 @@
         <v>83</v>
       </c>
       <c r="B82">
-        <v>14885</v>
+        <v>14915</v>
       </c>
       <c r="C82" t="s">
         <v>270</v>
@@ -2415,7 +2415,7 @@
         <v>84</v>
       </c>
       <c r="B83">
-        <v>4820</v>
+        <v>4831</v>
       </c>
       <c r="C83" t="s">
         <v>271</v>
@@ -2426,7 +2426,7 @@
         <v>85</v>
       </c>
       <c r="B84">
-        <v>6315</v>
+        <v>6316</v>
       </c>
       <c r="C84" t="s">
         <v>272</v>
@@ -2437,7 +2437,7 @@
         <v>86</v>
       </c>
       <c r="B85">
-        <v>115937</v>
+        <v>116366</v>
       </c>
       <c r="C85" t="s">
         <v>273</v>
@@ -2448,7 +2448,7 @@
         <v>87</v>
       </c>
       <c r="B86">
-        <v>697</v>
+        <v>713</v>
       </c>
       <c r="C86" t="s">
         <v>274</v>
@@ -2459,7 +2459,7 @@
         <v>88</v>
       </c>
       <c r="B87">
-        <v>9506</v>
+        <v>9552</v>
       </c>
       <c r="C87" t="s">
         <v>275</v>
@@ -2470,7 +2470,7 @@
         <v>89</v>
       </c>
       <c r="B88">
-        <v>8057</v>
+        <v>8117</v>
       </c>
       <c r="C88" t="s">
         <v>276</v>
@@ -2492,7 +2492,7 @@
         <v>91</v>
       </c>
       <c r="B90">
-        <v>2424</v>
+        <v>2443</v>
       </c>
       <c r="C90" t="s">
         <v>278</v>
@@ -2503,7 +2503,7 @@
         <v>92</v>
       </c>
       <c r="B91">
-        <v>1790</v>
+        <v>1794</v>
       </c>
       <c r="C91" t="s">
         <v>279</v>
@@ -2514,7 +2514,7 @@
         <v>93</v>
       </c>
       <c r="B92">
-        <v>2030</v>
+        <v>2061</v>
       </c>
       <c r="C92" t="s">
         <v>280</v>
@@ -2525,7 +2525,7 @@
         <v>94</v>
       </c>
       <c r="B93">
-        <v>1428</v>
+        <v>1436</v>
       </c>
       <c r="C93" t="s">
         <v>281</v>
@@ -2536,7 +2536,7 @@
         <v>95</v>
       </c>
       <c r="B94">
-        <v>1540</v>
+        <v>1544</v>
       </c>
       <c r="C94" t="s">
         <v>282</v>
@@ -2558,7 +2558,7 @@
         <v>97</v>
       </c>
       <c r="B96">
-        <v>2030</v>
+        <v>2042</v>
       </c>
       <c r="C96" t="s">
         <v>284</v>
@@ -2569,7 +2569,7 @@
         <v>98</v>
       </c>
       <c r="B97">
-        <v>6809</v>
+        <v>6854</v>
       </c>
       <c r="C97" t="s">
         <v>285</v>
@@ -2602,7 +2602,7 @@
         <v>101</v>
       </c>
       <c r="B100">
-        <v>2873</v>
+        <v>2882</v>
       </c>
       <c r="C100" t="s">
         <v>288</v>
@@ -2624,7 +2624,7 @@
         <v>103</v>
       </c>
       <c r="B102">
-        <v>3730</v>
+        <v>3739</v>
       </c>
       <c r="C102" t="s">
         <v>290</v>
@@ -2646,7 +2646,7 @@
         <v>105</v>
       </c>
       <c r="B104">
-        <v>527</v>
+        <v>531</v>
       </c>
       <c r="C104" t="s">
         <v>292</v>
@@ -2657,7 +2657,7 @@
         <v>106</v>
       </c>
       <c r="B105">
-        <v>1134</v>
+        <v>1136</v>
       </c>
       <c r="C105" t="s">
         <v>293</v>
@@ -2668,7 +2668,7 @@
         <v>107</v>
       </c>
       <c r="B106">
-        <v>1363</v>
+        <v>1365</v>
       </c>
       <c r="C106" t="s">
         <v>294</v>
@@ -2679,7 +2679,7 @@
         <v>108</v>
       </c>
       <c r="B107">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C107" t="s">
         <v>295</v>
@@ -2690,7 +2690,7 @@
         <v>109</v>
       </c>
       <c r="B108">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="C108" t="s">
         <v>296</v>
@@ -2701,7 +2701,7 @@
         <v>110</v>
       </c>
       <c r="B109">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="C109" t="s">
         <v>297</v>
@@ -2745,7 +2745,7 @@
         <v>114</v>
       </c>
       <c r="B113">
-        <v>211213</v>
+        <v>211693</v>
       </c>
       <c r="C113" t="s">
         <v>301</v>
@@ -2756,7 +2756,7 @@
         <v>115</v>
       </c>
       <c r="B114">
-        <v>5493</v>
+        <v>5521</v>
       </c>
       <c r="C114" t="s">
         <v>302</v>
@@ -2778,7 +2778,7 @@
         <v>117</v>
       </c>
       <c r="B116">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C116" t="s">
         <v>304</v>
@@ -2789,7 +2789,7 @@
         <v>118</v>
       </c>
       <c r="B117">
-        <v>1412</v>
+        <v>1421</v>
       </c>
       <c r="C117" t="s">
         <v>305</v>
@@ -2800,7 +2800,7 @@
         <v>119</v>
       </c>
       <c r="B118">
-        <v>8927</v>
+        <v>8934</v>
       </c>
       <c r="C118" t="s">
         <v>306</v>
@@ -2811,7 +2811,7 @@
         <v>120</v>
       </c>
       <c r="B119">
-        <v>794</v>
+        <v>797</v>
       </c>
       <c r="C119" t="s">
         <v>307</v>
@@ -2822,7 +2822,7 @@
         <v>121</v>
       </c>
       <c r="B120">
-        <v>596</v>
+        <v>599</v>
       </c>
       <c r="C120" t="s">
         <v>308</v>
@@ -2833,7 +2833,7 @@
         <v>122</v>
       </c>
       <c r="B121">
-        <v>3066</v>
+        <v>3070</v>
       </c>
       <c r="C121" t="s">
         <v>309</v>
@@ -2844,7 +2844,7 @@
         <v>123</v>
       </c>
       <c r="B122">
-        <v>17063</v>
+        <v>17080</v>
       </c>
       <c r="C122" t="s">
         <v>310</v>
@@ -2899,7 +2899,7 @@
         <v>128</v>
       </c>
       <c r="B127">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="C127" t="s">
         <v>315</v>
@@ -2921,7 +2921,7 @@
         <v>130</v>
       </c>
       <c r="B129">
-        <v>15982</v>
+        <v>16094</v>
       </c>
       <c r="C129" t="s">
         <v>317</v>
@@ -2932,7 +2932,7 @@
         <v>131</v>
       </c>
       <c r="B130">
-        <v>6183</v>
+        <v>6185</v>
       </c>
       <c r="C130" t="s">
         <v>318</v>
@@ -2965,7 +2965,7 @@
         <v>134</v>
       </c>
       <c r="B133">
-        <v>55812</v>
+        <v>56149</v>
       </c>
       <c r="C133" t="s">
         <v>321</v>
@@ -2976,7 +2976,7 @@
         <v>135</v>
       </c>
       <c r="B134">
-        <v>15594</v>
+        <v>15738</v>
       </c>
       <c r="C134" t="s">
         <v>322</v>
@@ -2987,7 +2987,7 @@
         <v>136</v>
       </c>
       <c r="B135">
-        <v>60612</v>
+        <v>61208</v>
       </c>
       <c r="C135" t="s">
         <v>323</v>
@@ -2998,7 +2998,7 @@
         <v>137</v>
       </c>
       <c r="B136">
-        <v>16933</v>
+        <v>16937</v>
       </c>
       <c r="C136" t="s">
         <v>324</v>
@@ -3009,7 +3009,7 @@
         <v>138</v>
       </c>
       <c r="B137">
-        <v>357</v>
+        <v>367</v>
       </c>
       <c r="C137" t="s">
         <v>325</v>
@@ -3020,7 +3020,7 @@
         <v>139</v>
       </c>
       <c r="B138">
-        <v>25800</v>
+        <v>25937</v>
       </c>
       <c r="C138" t="s">
         <v>326</v>
@@ -3031,7 +3031,7 @@
         <v>140</v>
       </c>
       <c r="B139">
-        <v>102667</v>
+        <v>103059</v>
       </c>
       <c r="C139" t="s">
         <v>327</v>
@@ -3042,7 +3042,7 @@
         <v>141</v>
       </c>
       <c r="B140">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C140" t="s">
         <v>328</v>
@@ -3064,7 +3064,7 @@
         <v>143</v>
       </c>
       <c r="B142">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C142" t="s">
         <v>330</v>
@@ -3097,7 +3097,7 @@
         <v>146</v>
       </c>
       <c r="B145">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C145" t="s">
         <v>333</v>
@@ -3119,7 +3119,7 @@
         <v>148</v>
       </c>
       <c r="B147">
-        <v>6791</v>
+        <v>6801</v>
       </c>
       <c r="C147" t="s">
         <v>335</v>
@@ -3130,7 +3130,7 @@
         <v>149</v>
       </c>
       <c r="B148">
-        <v>1085</v>
+        <v>1087</v>
       </c>
       <c r="C148" t="s">
         <v>336</v>
@@ -3141,7 +3141,7 @@
         <v>150</v>
       </c>
       <c r="B149">
-        <v>5881</v>
+        <v>5920</v>
       </c>
       <c r="C149" t="s">
         <v>337</v>
@@ -3185,7 +3185,7 @@
         <v>154</v>
       </c>
       <c r="B153">
-        <v>10877</v>
+        <v>10970</v>
       </c>
       <c r="C153" t="s">
         <v>341</v>
@@ -3196,7 +3196,7 @@
         <v>155</v>
       </c>
       <c r="B154">
-        <v>4142</v>
+        <v>4147</v>
       </c>
       <c r="C154" t="s">
         <v>342</v>
@@ -3229,7 +3229,7 @@
         <v>158</v>
       </c>
       <c r="B157">
-        <v>53571</v>
+        <v>53663</v>
       </c>
       <c r="C157" t="s">
         <v>345</v>
@@ -3251,7 +3251,7 @@
         <v>160</v>
       </c>
       <c r="B159">
-        <v>76882</v>
+        <v>76981</v>
       </c>
       <c r="C159" t="s">
         <v>347</v>
@@ -3262,7 +3262,7 @@
         <v>161</v>
       </c>
       <c r="B160">
-        <v>608</v>
+        <v>615</v>
       </c>
       <c r="C160" t="s">
         <v>348</v>
@@ -3284,7 +3284,7 @@
         <v>163</v>
       </c>
       <c r="B162">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C162" t="s">
         <v>350</v>
@@ -3295,7 +3295,7 @@
         <v>164</v>
       </c>
       <c r="B163">
-        <v>13761</v>
+        <v>13788</v>
       </c>
       <c r="C163" t="s">
         <v>351</v>
@@ -3306,7 +3306,7 @@
         <v>165</v>
       </c>
       <c r="B164">
-        <v>10498</v>
+        <v>10505</v>
       </c>
       <c r="C164" t="s">
         <v>352</v>
@@ -3317,7 +3317,7 @@
         <v>166</v>
       </c>
       <c r="B165">
-        <v>1414</v>
+        <v>1423</v>
       </c>
       <c r="C165" t="s">
         <v>353</v>
@@ -3383,7 +3383,7 @@
         <v>172</v>
       </c>
       <c r="B171">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C171" t="s">
         <v>359</v>
@@ -3405,7 +3405,7 @@
         <v>174</v>
       </c>
       <c r="B173">
-        <v>9553</v>
+        <v>9639</v>
       </c>
       <c r="C173" t="s">
         <v>361</v>
@@ -3416,7 +3416,7 @@
         <v>175</v>
       </c>
       <c r="B174">
-        <v>35031</v>
+        <v>35320</v>
       </c>
       <c r="C174" t="s">
         <v>362</v>
@@ -3427,7 +3427,7 @@
         <v>176</v>
       </c>
       <c r="B175">
-        <v>565289</v>
+        <v>566224</v>
       </c>
       <c r="C175" t="s">
         <v>363</v>
@@ -3449,7 +3449,7 @@
         <v>178</v>
       </c>
       <c r="B177">
-        <v>40389</v>
+        <v>40832</v>
       </c>
       <c r="C177" t="s">
         <v>365</v>
@@ -3460,7 +3460,7 @@
         <v>179</v>
       </c>
       <c r="B178">
-        <v>1545</v>
+        <v>1547</v>
       </c>
       <c r="C178" t="s">
         <v>366</v>
@@ -3471,7 +3471,7 @@
         <v>180</v>
       </c>
       <c r="B179">
-        <v>127438</v>
+        <v>127472</v>
       </c>
       <c r="C179" t="s">
         <v>367</v>
@@ -3482,7 +3482,7 @@
         <v>181</v>
       </c>
       <c r="B180">
-        <v>1726</v>
+        <v>1788</v>
       </c>
       <c r="C180" t="s">
         <v>368</v>
@@ -3493,7 +3493,7 @@
         <v>182</v>
       </c>
       <c r="B181">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="C181" t="s">
         <v>369</v>
@@ -3515,7 +3515,7 @@
         <v>184</v>
       </c>
       <c r="B183">
-        <v>1853</v>
+        <v>1870</v>
       </c>
       <c r="C183" t="s">
         <v>371</v>
@@ -3537,7 +3537,7 @@
         <v>186</v>
       </c>
       <c r="B185">
-        <v>2937</v>
+        <v>2955</v>
       </c>
       <c r="C185" t="s">
         <v>373</v>
@@ -3548,7 +3548,7 @@
         <v>187</v>
       </c>
       <c r="B186">
-        <v>1097</v>
+        <v>1108</v>
       </c>
       <c r="C186" t="s">
         <v>374</v>
@@ -3559,7 +3559,7 @@
         <v>188</v>
       </c>
       <c r="B187">
-        <v>1230</v>
+        <v>1233</v>
       </c>
       <c r="C187" t="s">
         <v>375</v>
@@ -3570,7 +3570,7 @@
         <v>189</v>
       </c>
       <c r="B188">
-        <v>1550</v>
+        <v>1551</v>
       </c>
       <c r="C188" t="s">
         <v>376</v>

--- a/deathmapdata.xlsx
+++ b/deathmapdata.xlsx
@@ -457,7 +457,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2535</v>
+        <v>2539</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2337</v>
+        <v>2342</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3148</v>
+        <v>3155</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -517,7 +517,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -547,7 +547,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>59084</v>
+        <v>59228</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -562,7 +562,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3835</v>
+        <v>3878</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -592,7 +592,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>9843</v>
+        <v>9898</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -607,7 +607,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>4077</v>
+        <v>4140</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -637,7 +637,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>581</v>
+        <v>594</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -652,7 +652,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>10182</v>
+        <v>10385</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -682,7 +682,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2403</v>
+        <v>2423</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -697,7 +697,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>23681</v>
+        <v>23747</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -757,7 +757,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>12625</v>
+        <v>12648</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -802,7 +802,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>368749</v>
+        <v>373335</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -832,7 +832,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>15100</v>
+        <v>15195</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -892,7 +892,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -907,7 +907,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -922,7 +922,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>919</v>
+        <v>939</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -937,7 +937,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>23531</v>
+        <v>23611</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -982,7 +982,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24923</v>
+        <v>25177</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -1012,7 +1012,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>67564</v>
+        <v>68328</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -1102,7 +1102,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>6486</v>
+        <v>6562</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -1117,7 +1117,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>500</v>
+        <v>525</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -1147,7 +1147,7 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>28317</v>
+        <v>28426</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -1162,7 +1162,7 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>2453</v>
+        <v>2456</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -1177,7 +1177,7 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>3410</v>
+        <v>3418</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -1222,7 +1222,7 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>17528</v>
+        <v>17703</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -1237,7 +1237,7 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>12653</v>
+        <v>12738</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -1252,7 +1252,7 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>2068</v>
+        <v>2075</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -1297,7 +1297,7 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>1070</v>
+        <v>1092</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -1312,7 +1312,7 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -1327,7 +1327,7 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>3300</v>
+        <v>3370</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -1372,7 +1372,7 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>100563</v>
+        <v>100892</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -1417,7 +1417,7 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>3916</v>
+        <v>3939</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -1432,7 +1432,7 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>79894</v>
+        <v>80052</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>766</v>
+        <v>771</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
@@ -1462,7 +1462,7 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>9330</v>
+        <v>9462</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -1492,7 +1492,7 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>7160</v>
+        <v>7221</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
@@ -1537,7 +1537,7 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -1552,7 +1552,7 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -1567,7 +1567,7 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>4934</v>
+        <v>4957</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -1582,7 +1582,7 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>24762</v>
+        <v>25184</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -1612,7 +1612,7 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>175649</v>
+        <v>178769</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -1627,7 +1627,7 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>43196</v>
+        <v>43424</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
@@ -1642,7 +1642,7 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>66008</v>
+        <v>66732</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
@@ -1657,7 +1657,7 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>14915</v>
+        <v>14981</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
@@ -1672,7 +1672,7 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>4831</v>
+        <v>4836</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>6316</v>
+        <v>6335</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
@@ -1702,7 +1702,7 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>116366</v>
+        <v>116927</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
@@ -1717,7 +1717,7 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>713</v>
+        <v>723</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
@@ -1732,7 +1732,7 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>9552</v>
+        <v>9610</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>8117</v>
+        <v>8246</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>3282</v>
+        <v>3291</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
@@ -1777,7 +1777,7 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>2443</v>
+        <v>2481</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
@@ -1792,7 +1792,7 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>1794</v>
+        <v>1801</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
@@ -1807,7 +1807,7 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>2061</v>
+        <v>2080</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
@@ -1822,7 +1822,7 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>1436</v>
+        <v>1448</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
@@ -1837,7 +1837,7 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>1544</v>
+        <v>1549</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
@@ -1867,7 +1867,7 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>2042</v>
+        <v>2053</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
@@ -1882,7 +1882,7 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>6854</v>
+        <v>6925</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>2882</v>
+        <v>2896</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
@@ -1957,7 +1957,7 @@
         </is>
       </c>
       <c r="B102" t="n">
-        <v>3739</v>
+        <v>3760</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
@@ -1987,7 +1987,7 @@
         </is>
       </c>
       <c r="B104" t="n">
-        <v>531</v>
+        <v>542</v>
       </c>
       <c r="C104" t="inlineStr">
         <is>
@@ -2002,7 +2002,7 @@
         </is>
       </c>
       <c r="B105" t="n">
-        <v>1136</v>
+        <v>1138</v>
       </c>
       <c r="C105" t="inlineStr">
         <is>
@@ -2017,7 +2017,7 @@
         </is>
       </c>
       <c r="B106" t="n">
-        <v>1365</v>
+        <v>1378</v>
       </c>
       <c r="C106" t="inlineStr">
         <is>
@@ -2032,7 +2032,7 @@
         </is>
       </c>
       <c r="B107" t="n">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C107" t="inlineStr">
         <is>
@@ -2047,7 +2047,7 @@
         </is>
       </c>
       <c r="B108" t="n">
-        <v>426</v>
+        <v>433</v>
       </c>
       <c r="C108" t="inlineStr">
         <is>
@@ -2062,7 +2062,7 @@
         </is>
       </c>
       <c r="B109" t="n">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="C109" t="inlineStr">
         <is>
@@ -2092,7 +2092,7 @@
         </is>
       </c>
       <c r="B111" t="n">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C111" t="inlineStr">
         <is>
@@ -2122,7 +2122,7 @@
         </is>
       </c>
       <c r="B113" t="n">
-        <v>211693</v>
+        <v>212339</v>
       </c>
       <c r="C113" t="inlineStr">
         <is>
@@ -2137,7 +2137,7 @@
         </is>
       </c>
       <c r="B114" t="n">
-        <v>5521</v>
+        <v>5571</v>
       </c>
       <c r="C114" t="inlineStr">
         <is>
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="B116" t="n">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="C116" t="inlineStr">
         <is>
@@ -2182,7 +2182,7 @@
         </is>
       </c>
       <c r="B117" t="n">
-        <v>1421</v>
+        <v>1429</v>
       </c>
       <c r="C117" t="inlineStr">
         <is>
@@ -2197,7 +2197,7 @@
         </is>
       </c>
       <c r="B118" t="n">
-        <v>8934</v>
+        <v>8945</v>
       </c>
       <c r="C118" t="inlineStr">
         <is>
@@ -2212,7 +2212,7 @@
         </is>
       </c>
       <c r="B119" t="n">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="C119" t="inlineStr">
         <is>
@@ -2227,7 +2227,7 @@
         </is>
       </c>
       <c r="B120" t="n">
-        <v>599</v>
+        <v>604</v>
       </c>
       <c r="C120" t="inlineStr">
         <is>
@@ -2242,7 +2242,7 @@
         </is>
       </c>
       <c r="B121" t="n">
-        <v>3070</v>
+        <v>3083</v>
       </c>
       <c r="C121" t="inlineStr">
         <is>
@@ -2257,7 +2257,7 @@
         </is>
       </c>
       <c r="B122" t="n">
-        <v>17080</v>
+        <v>17127</v>
       </c>
       <c r="C122" t="inlineStr">
         <is>
@@ -2347,7 +2347,7 @@
         </is>
       </c>
       <c r="B128" t="n">
-        <v>1821</v>
+        <v>1878</v>
       </c>
       <c r="C128" t="inlineStr">
         <is>
@@ -2362,7 +2362,7 @@
         </is>
       </c>
       <c r="B129" t="n">
-        <v>16094</v>
+        <v>16316</v>
       </c>
       <c r="C129" t="inlineStr">
         <is>
@@ -2377,7 +2377,7 @@
         </is>
       </c>
       <c r="B130" t="n">
-        <v>6185</v>
+        <v>6188</v>
       </c>
       <c r="C130" t="inlineStr">
         <is>
@@ -2392,7 +2392,7 @@
         </is>
       </c>
       <c r="B131" t="n">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="C131" t="inlineStr">
         <is>
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="B132" t="n">
-        <v>5110</v>
+        <v>5313</v>
       </c>
       <c r="C132" t="inlineStr">
         <is>
@@ -2422,7 +2422,7 @@
         </is>
       </c>
       <c r="B133" t="n">
-        <v>56149</v>
+        <v>56797</v>
       </c>
       <c r="C133" t="inlineStr">
         <is>
@@ -2437,7 +2437,7 @@
         </is>
       </c>
       <c r="B134" t="n">
-        <v>15738</v>
+        <v>15960</v>
       </c>
       <c r="C134" t="inlineStr">
         <is>
@@ -2452,7 +2452,7 @@
         </is>
       </c>
       <c r="B135" t="n">
-        <v>61208</v>
+        <v>62032</v>
       </c>
       <c r="C135" t="inlineStr">
         <is>
@@ -2467,7 +2467,7 @@
         </is>
       </c>
       <c r="B136" t="n">
-        <v>16937</v>
+        <v>16945</v>
       </c>
       <c r="C136" t="inlineStr">
         <is>
@@ -2482,7 +2482,7 @@
         </is>
       </c>
       <c r="B137" t="n">
-        <v>367</v>
+        <v>382</v>
       </c>
       <c r="C137" t="inlineStr">
         <is>
@@ -2497,7 +2497,7 @@
         </is>
       </c>
       <c r="B138" t="n">
-        <v>25937</v>
+        <v>26232</v>
       </c>
       <c r="C138" t="inlineStr">
         <is>
@@ -2512,7 +2512,7 @@
         </is>
       </c>
       <c r="B139" t="n">
-        <v>103059</v>
+        <v>103834</v>
       </c>
       <c r="C139" t="inlineStr">
         <is>
@@ -2527,7 +2527,7 @@
         </is>
       </c>
       <c r="B140" t="n">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="C140" t="inlineStr">
         <is>
@@ -2557,7 +2557,7 @@
         </is>
       </c>
       <c r="B142" t="n">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C142" t="inlineStr">
         <is>
@@ -2632,7 +2632,7 @@
         </is>
       </c>
       <c r="B147" t="n">
-        <v>6801</v>
+        <v>6823</v>
       </c>
       <c r="C147" t="inlineStr">
         <is>
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="B148" t="n">
-        <v>1087</v>
+        <v>1091</v>
       </c>
       <c r="C148" t="inlineStr">
         <is>
@@ -2662,7 +2662,7 @@
         </is>
       </c>
       <c r="B149" t="n">
-        <v>5920</v>
+        <v>5991</v>
       </c>
       <c r="C149" t="inlineStr">
         <is>
@@ -2722,7 +2722,7 @@
         </is>
       </c>
       <c r="B153" t="n">
-        <v>10970</v>
+        <v>11106</v>
       </c>
       <c r="C153" t="inlineStr">
         <is>
@@ -2737,7 +2737,7 @@
         </is>
       </c>
       <c r="B154" t="n">
-        <v>4147</v>
+        <v>4159</v>
       </c>
       <c r="C154" t="inlineStr">
         <is>
@@ -2767,7 +2767,7 @@
         </is>
       </c>
       <c r="B156" t="n">
-        <v>656</v>
+        <v>670</v>
       </c>
       <c r="C156" t="inlineStr">
         <is>
@@ -2782,7 +2782,7 @@
         </is>
       </c>
       <c r="B157" t="n">
-        <v>53663</v>
+        <v>53736</v>
       </c>
       <c r="C157" t="inlineStr">
         <is>
@@ -2827,7 +2827,7 @@
         </is>
       </c>
       <c r="B160" t="n">
-        <v>615</v>
+        <v>618</v>
       </c>
       <c r="C160" t="inlineStr">
         <is>
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="B164" t="n">
-        <v>10505</v>
+        <v>10508</v>
       </c>
       <c r="C164" t="inlineStr">
         <is>
@@ -2902,7 +2902,7 @@
         </is>
       </c>
       <c r="B165" t="n">
-        <v>1423</v>
+        <v>1446</v>
       </c>
       <c r="C165" t="inlineStr">
         <is>
@@ -2962,7 +2962,7 @@
         </is>
       </c>
       <c r="B169" t="n">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="C169" t="inlineStr">
         <is>
@@ -3007,7 +3007,7 @@
         </is>
       </c>
       <c r="B172" t="n">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="C172" t="inlineStr">
         <is>
@@ -3022,7 +3022,7 @@
         </is>
       </c>
       <c r="B173" t="n">
-        <v>9639</v>
+        <v>9783</v>
       </c>
       <c r="C173" t="inlineStr">
         <is>
@@ -3037,7 +3037,7 @@
         </is>
       </c>
       <c r="B174" t="n">
-        <v>35320</v>
+        <v>35926</v>
       </c>
       <c r="C174" t="inlineStr">
         <is>
@@ -3052,7 +3052,7 @@
         </is>
       </c>
       <c r="B175" t="n">
-        <v>566224</v>
+        <v>567217</v>
       </c>
       <c r="C175" t="inlineStr">
         <is>
@@ -3082,7 +3082,7 @@
         </is>
       </c>
       <c r="B177" t="n">
-        <v>40832</v>
+        <v>41534</v>
       </c>
       <c r="C177" t="inlineStr">
         <is>
@@ -3097,7 +3097,7 @@
         </is>
       </c>
       <c r="B178" t="n">
-        <v>1547</v>
+        <v>1554</v>
       </c>
       <c r="C178" t="inlineStr">
         <is>
@@ -3112,7 +3112,7 @@
         </is>
       </c>
       <c r="B179" t="n">
-        <v>127472</v>
+        <v>127518</v>
       </c>
       <c r="C179" t="inlineStr">
         <is>
@@ -3127,7 +3127,7 @@
         </is>
       </c>
       <c r="B180" t="n">
-        <v>1788</v>
+        <v>1908</v>
       </c>
       <c r="C180" t="inlineStr">
         <is>
@@ -3142,7 +3142,7 @@
         </is>
       </c>
       <c r="B181" t="n">
-        <v>635</v>
+        <v>638</v>
       </c>
       <c r="C181" t="inlineStr">
         <is>
@@ -3172,7 +3172,7 @@
         </is>
       </c>
       <c r="B183" t="n">
-        <v>1870</v>
+        <v>1905</v>
       </c>
       <c r="C183" t="inlineStr">
         <is>
@@ -3202,7 +3202,7 @@
         </is>
       </c>
       <c r="B185" t="n">
-        <v>2955</v>
+        <v>3017</v>
       </c>
       <c r="C185" t="inlineStr">
         <is>
@@ -3217,7 +3217,7 @@
         </is>
       </c>
       <c r="B186" t="n">
-        <v>1108</v>
+        <v>1126</v>
       </c>
       <c r="C186" t="inlineStr">
         <is>
@@ -3232,7 +3232,7 @@
         </is>
       </c>
       <c r="B187" t="n">
-        <v>1233</v>
+        <v>1235</v>
       </c>
       <c r="C187" t="inlineStr">
         <is>
@@ -3247,7 +3247,7 @@
         </is>
       </c>
       <c r="B188" t="n">
-        <v>1551</v>
+        <v>1553</v>
       </c>
       <c r="C188" t="inlineStr">
         <is>

--- a/deathmapdata.xlsx
+++ b/deathmapdata.xlsx
@@ -457,7 +457,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2539</v>
+        <v>2549</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2342</v>
+        <v>2353</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3155</v>
+        <v>3165</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -517,7 +517,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -547,7 +547,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>59228</v>
+        <v>59792</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -562,7 +562,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3878</v>
+        <v>3919</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -592,7 +592,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>9898</v>
+        <v>9959</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -607,7 +607,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>4140</v>
+        <v>4203</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -637,7 +637,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>594</v>
+        <v>605</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -652,7 +652,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>10385</v>
+        <v>10588</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -682,7 +682,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2423</v>
+        <v>2443</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -697,7 +697,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>23747</v>
+        <v>23834</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -757,7 +757,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>12648</v>
+        <v>12695</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -772,7 +772,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>7788</v>
+        <v>8025</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -787,7 +787,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>671</v>
+        <v>684</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -802,7 +802,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>373335</v>
+        <v>378003</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -832,7 +832,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>15195</v>
+        <v>15518</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -847,7 +847,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -892,7 +892,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -907,7 +907,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -937,7 +937,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>23611</v>
+        <v>23698</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -952,7 +952,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -982,7 +982,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>25177</v>
+        <v>25317</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -1012,7 +1012,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>68328</v>
+        <v>69177</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -1057,7 +1057,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>745</v>
+        <v>748</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -1072,7 +1072,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3071</v>
+        <v>3104</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -1087,7 +1087,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -1102,7 +1102,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>6562</v>
+        <v>6643</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -1117,7 +1117,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>525</v>
+        <v>538</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -1147,7 +1147,7 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>28426</v>
+        <v>28640</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -1162,7 +1162,7 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>2456</v>
+        <v>2464</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -1177,7 +1177,7 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>3418</v>
+        <v>3426</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -1222,7 +1222,7 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>17703</v>
+        <v>17744</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -1237,7 +1237,7 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>12738</v>
+        <v>12820</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -1252,7 +1252,7 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>2075</v>
+        <v>2082</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -1297,7 +1297,7 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>1092</v>
+        <v>1104</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -1327,7 +1327,7 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>3370</v>
+        <v>3439</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -1357,7 +1357,7 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>887</v>
+        <v>893</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -1372,7 +1372,7 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>100892</v>
+        <v>101713</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -1417,7 +1417,7 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>3939</v>
+        <v>3959</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -1432,7 +1432,7 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>80052</v>
+        <v>80680</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
@@ -1462,7 +1462,7 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>9462</v>
+        <v>9627</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -1492,7 +1492,7 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>7221</v>
+        <v>7279</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
@@ -1507,7 +1507,7 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -1537,7 +1537,7 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -1567,7 +1567,7 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>4957</v>
+        <v>4976</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -1582,7 +1582,7 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>25184</v>
+        <v>25580</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -1612,7 +1612,7 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>178769</v>
+        <v>182553</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -1627,7 +1627,7 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>43424</v>
+        <v>43777</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
@@ -1642,7 +1642,7 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>66732</v>
+        <v>67525</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
@@ -1657,7 +1657,7 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>14981</v>
+        <v>15060</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
@@ -1672,7 +1672,7 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>4836</v>
+        <v>4847</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>6335</v>
+        <v>6345</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
@@ -1702,7 +1702,7 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>116927</v>
+        <v>117633</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
@@ -1717,7 +1717,7 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>723</v>
+        <v>738</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
@@ -1732,7 +1732,7 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>9610</v>
+        <v>9682</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>8246</v>
+        <v>8372</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>3291</v>
+        <v>3297</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
@@ -1777,7 +1777,7 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>2481</v>
+        <v>2519</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
@@ -1792,7 +1792,7 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>1801</v>
+        <v>1806</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
@@ -1807,7 +1807,7 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>2080</v>
+        <v>2105</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
@@ -1822,7 +1822,7 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>1448</v>
+        <v>1468</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
@@ -1837,7 +1837,7 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>1549</v>
+        <v>1557</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
@@ -1867,7 +1867,7 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>2053</v>
+        <v>2071</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
@@ -1882,7 +1882,7 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>6925</v>
+        <v>6995</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
@@ -1897,7 +1897,7 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>2896</v>
+        <v>2919</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
@@ -1957,7 +1957,7 @@
         </is>
       </c>
       <c r="B102" t="n">
-        <v>3760</v>
+        <v>3785</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
@@ -1972,7 +1972,7 @@
         </is>
       </c>
       <c r="B103" t="n">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="C103" t="inlineStr">
         <is>
@@ -1987,7 +1987,7 @@
         </is>
       </c>
       <c r="B104" t="n">
-        <v>542</v>
+        <v>563</v>
       </c>
       <c r="C104" t="inlineStr">
         <is>
@@ -2002,7 +2002,7 @@
         </is>
       </c>
       <c r="B105" t="n">
-        <v>1138</v>
+        <v>1142</v>
       </c>
       <c r="C105" t="inlineStr">
         <is>
@@ -2017,7 +2017,7 @@
         </is>
       </c>
       <c r="B106" t="n">
-        <v>1378</v>
+        <v>1389</v>
       </c>
       <c r="C106" t="inlineStr">
         <is>
@@ -2032,7 +2032,7 @@
         </is>
       </c>
       <c r="B107" t="n">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C107" t="inlineStr">
         <is>
@@ -2047,7 +2047,7 @@
         </is>
       </c>
       <c r="B108" t="n">
-        <v>433</v>
+        <v>444</v>
       </c>
       <c r="C108" t="inlineStr">
         <is>
@@ -2062,7 +2062,7 @@
         </is>
       </c>
       <c r="B109" t="n">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="C109" t="inlineStr">
         <is>
@@ -2092,7 +2092,7 @@
         </is>
       </c>
       <c r="B111" t="n">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C111" t="inlineStr">
         <is>
@@ -2122,7 +2122,7 @@
         </is>
       </c>
       <c r="B113" t="n">
-        <v>212339</v>
+        <v>213048</v>
       </c>
       <c r="C113" t="inlineStr">
         <is>
@@ -2137,7 +2137,7 @@
         </is>
       </c>
       <c r="B114" t="n">
-        <v>5571</v>
+        <v>5616</v>
       </c>
       <c r="C114" t="inlineStr">
         <is>
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="B116" t="n">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="C116" t="inlineStr">
         <is>
@@ -2182,7 +2182,7 @@
         </is>
       </c>
       <c r="B117" t="n">
-        <v>1429</v>
+        <v>1441</v>
       </c>
       <c r="C117" t="inlineStr">
         <is>
@@ -2197,7 +2197,7 @@
         </is>
       </c>
       <c r="B118" t="n">
-        <v>8945</v>
+        <v>8959</v>
       </c>
       <c r="C118" t="inlineStr">
         <is>
@@ -2212,7 +2212,7 @@
         </is>
       </c>
       <c r="B119" t="n">
-        <v>798</v>
+        <v>802</v>
       </c>
       <c r="C119" t="inlineStr">
         <is>
@@ -2227,7 +2227,7 @@
         </is>
       </c>
       <c r="B120" t="n">
-        <v>604</v>
+        <v>608</v>
       </c>
       <c r="C120" t="inlineStr">
         <is>
@@ -2242,7 +2242,7 @@
         </is>
       </c>
       <c r="B121" t="n">
-        <v>3083</v>
+        <v>3102</v>
       </c>
       <c r="C121" t="inlineStr">
         <is>
@@ -2257,7 +2257,7 @@
         </is>
       </c>
       <c r="B122" t="n">
-        <v>17127</v>
+        <v>17179</v>
       </c>
       <c r="C122" t="inlineStr">
         <is>
@@ -2287,7 +2287,7 @@
         </is>
       </c>
       <c r="B124" t="n">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C124" t="inlineStr">
         <is>
@@ -2302,7 +2302,7 @@
         </is>
       </c>
       <c r="B125" t="n">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C125" t="inlineStr">
         <is>
@@ -2332,7 +2332,7 @@
         </is>
       </c>
       <c r="B127" t="n">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="C127" t="inlineStr">
         <is>
@@ -2347,7 +2347,7 @@
         </is>
       </c>
       <c r="B128" t="n">
-        <v>1878</v>
+        <v>1909</v>
       </c>
       <c r="C128" t="inlineStr">
         <is>
@@ -2362,7 +2362,7 @@
         </is>
       </c>
       <c r="B129" t="n">
-        <v>16316</v>
+        <v>16600</v>
       </c>
       <c r="C129" t="inlineStr">
         <is>
@@ -2377,7 +2377,7 @@
         </is>
       </c>
       <c r="B130" t="n">
-        <v>6188</v>
+        <v>6192</v>
       </c>
       <c r="C130" t="inlineStr">
         <is>
@@ -2392,7 +2392,7 @@
         </is>
       </c>
       <c r="B131" t="n">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C131" t="inlineStr">
         <is>
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="B132" t="n">
-        <v>5313</v>
+        <v>5470</v>
       </c>
       <c r="C132" t="inlineStr">
         <is>
@@ -2422,7 +2422,7 @@
         </is>
       </c>
       <c r="B133" t="n">
-        <v>56797</v>
+        <v>57954</v>
       </c>
       <c r="C133" t="inlineStr">
         <is>
@@ -2437,7 +2437,7 @@
         </is>
       </c>
       <c r="B134" t="n">
-        <v>15960</v>
+        <v>16141</v>
       </c>
       <c r="C134" t="inlineStr">
         <is>
@@ -2452,7 +2452,7 @@
         </is>
       </c>
       <c r="B135" t="n">
-        <v>62032</v>
+        <v>62734</v>
       </c>
       <c r="C135" t="inlineStr">
         <is>
@@ -2467,7 +2467,7 @@
         </is>
       </c>
       <c r="B136" t="n">
-        <v>16945</v>
+        <v>16951</v>
       </c>
       <c r="C136" t="inlineStr">
         <is>
@@ -2482,7 +2482,7 @@
         </is>
       </c>
       <c r="B137" t="n">
-        <v>382</v>
+        <v>391</v>
       </c>
       <c r="C137" t="inlineStr">
         <is>
@@ -2497,7 +2497,7 @@
         </is>
       </c>
       <c r="B138" t="n">
-        <v>26232</v>
+        <v>26618</v>
       </c>
       <c r="C138" t="inlineStr">
         <is>
@@ -2512,7 +2512,7 @@
         </is>
       </c>
       <c r="B139" t="n">
-        <v>103834</v>
+        <v>104545</v>
       </c>
       <c r="C139" t="inlineStr">
         <is>
@@ -2527,7 +2527,7 @@
         </is>
       </c>
       <c r="B140" t="n">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="C140" t="inlineStr">
         <is>
@@ -2557,7 +2557,7 @@
         </is>
       </c>
       <c r="B142" t="n">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C142" t="inlineStr">
         <is>
@@ -2602,7 +2602,7 @@
         </is>
       </c>
       <c r="B145" t="n">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C145" t="inlineStr">
         <is>
@@ -2632,7 +2632,7 @@
         </is>
       </c>
       <c r="B147" t="n">
-        <v>6823</v>
+        <v>6846</v>
       </c>
       <c r="C147" t="inlineStr">
         <is>
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="B148" t="n">
-        <v>1091</v>
+        <v>1095</v>
       </c>
       <c r="C148" t="inlineStr">
         <is>
@@ -2662,7 +2662,7 @@
         </is>
       </c>
       <c r="B149" t="n">
-        <v>5991</v>
+        <v>6058</v>
       </c>
       <c r="C149" t="inlineStr">
         <is>
@@ -2722,7 +2722,7 @@
         </is>
       </c>
       <c r="B153" t="n">
-        <v>11106</v>
+        <v>11244</v>
       </c>
       <c r="C153" t="inlineStr">
         <is>
@@ -2737,7 +2737,7 @@
         </is>
       </c>
       <c r="B154" t="n">
-        <v>4159</v>
+        <v>4172</v>
       </c>
       <c r="C154" t="inlineStr">
         <is>
@@ -2767,7 +2767,7 @@
         </is>
       </c>
       <c r="B156" t="n">
-        <v>670</v>
+        <v>678</v>
       </c>
       <c r="C156" t="inlineStr">
         <is>
@@ -2782,7 +2782,7 @@
         </is>
       </c>
       <c r="B157" t="n">
-        <v>53736</v>
+        <v>53887</v>
       </c>
       <c r="C157" t="inlineStr">
         <is>
@@ -2812,7 +2812,7 @@
         </is>
       </c>
       <c r="B159" t="n">
-        <v>76981</v>
+        <v>77102</v>
       </c>
       <c r="C159" t="inlineStr">
         <is>
@@ -2827,7 +2827,7 @@
         </is>
       </c>
       <c r="B160" t="n">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="C160" t="inlineStr">
         <is>
@@ -2842,7 +2842,7 @@
         </is>
       </c>
       <c r="B161" t="n">
-        <v>2208</v>
+        <v>2287</v>
       </c>
       <c r="C161" t="inlineStr">
         <is>
@@ -2857,7 +2857,7 @@
         </is>
       </c>
       <c r="B162" t="n">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C162" t="inlineStr">
         <is>
@@ -2872,7 +2872,7 @@
         </is>
       </c>
       <c r="B163" t="n">
-        <v>13788</v>
+        <v>13825</v>
       </c>
       <c r="C163" t="inlineStr">
         <is>
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="B164" t="n">
-        <v>10508</v>
+        <v>10532</v>
       </c>
       <c r="C164" t="inlineStr">
         <is>
@@ -2902,7 +2902,7 @@
         </is>
       </c>
       <c r="B165" t="n">
-        <v>1446</v>
+        <v>1468</v>
       </c>
       <c r="C165" t="inlineStr">
         <is>
@@ -2962,7 +2962,7 @@
         </is>
       </c>
       <c r="B169" t="n">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="C169" t="inlineStr">
         <is>
@@ -2992,7 +2992,7 @@
         </is>
       </c>
       <c r="B171" t="n">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C171" t="inlineStr">
         <is>
@@ -3007,7 +3007,7 @@
         </is>
       </c>
       <c r="B172" t="n">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="C172" t="inlineStr">
         <is>
@@ -3022,7 +3022,7 @@
         </is>
       </c>
       <c r="B173" t="n">
-        <v>9783</v>
+        <v>9918</v>
       </c>
       <c r="C173" t="inlineStr">
         <is>
@@ -3037,7 +3037,7 @@
         </is>
       </c>
       <c r="B174" t="n">
-        <v>35926</v>
+        <v>36613</v>
       </c>
       <c r="C174" t="inlineStr">
         <is>
@@ -3052,7 +3052,7 @@
         </is>
       </c>
       <c r="B175" t="n">
-        <v>567217</v>
+        <v>568470</v>
       </c>
       <c r="C175" t="inlineStr">
         <is>
@@ -3067,7 +3067,7 @@
         </is>
       </c>
       <c r="B176" t="n">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="C176" t="inlineStr">
         <is>
@@ -3082,7 +3082,7 @@
         </is>
       </c>
       <c r="B177" t="n">
-        <v>41534</v>
+        <v>42129</v>
       </c>
       <c r="C177" t="inlineStr">
         <is>
@@ -3097,7 +3097,7 @@
         </is>
       </c>
       <c r="B178" t="n">
-        <v>1554</v>
+        <v>1559</v>
       </c>
       <c r="C178" t="inlineStr">
         <is>
@@ -3112,7 +3112,7 @@
         </is>
       </c>
       <c r="B179" t="n">
-        <v>127518</v>
+        <v>127557</v>
       </c>
       <c r="C179" t="inlineStr">
         <is>
@@ -3127,7 +3127,7 @@
         </is>
       </c>
       <c r="B180" t="n">
-        <v>1908</v>
+        <v>2022</v>
       </c>
       <c r="C180" t="inlineStr">
         <is>
@@ -3142,7 +3142,7 @@
         </is>
       </c>
       <c r="B181" t="n">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="C181" t="inlineStr">
         <is>
@@ -3172,7 +3172,7 @@
         </is>
       </c>
       <c r="B183" t="n">
-        <v>1905</v>
+        <v>1944</v>
       </c>
       <c r="C183" t="inlineStr">
         <is>
@@ -3202,7 +3202,7 @@
         </is>
       </c>
       <c r="B185" t="n">
-        <v>3017</v>
+        <v>3078</v>
       </c>
       <c r="C185" t="inlineStr">
         <is>
@@ -3217,7 +3217,7 @@
         </is>
       </c>
       <c r="B186" t="n">
-        <v>1126</v>
+        <v>1138</v>
       </c>
       <c r="C186" t="inlineStr">
         <is>
@@ -3232,7 +3232,7 @@
         </is>
       </c>
       <c r="B187" t="n">
-        <v>1235</v>
+        <v>1236</v>
       </c>
       <c r="C187" t="inlineStr">
         <is>
@@ -3247,7 +3247,7 @@
         </is>
       </c>
       <c r="B188" t="n">
-        <v>1553</v>
+        <v>1554</v>
       </c>
       <c r="C188" t="inlineStr">
         <is>

--- a/deathmapdata.xlsx
+++ b/deathmapdata.xlsx
@@ -457,7 +457,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2549</v>
+        <v>2572</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2353</v>
+        <v>2372</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3165</v>
+        <v>3198</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -517,7 +517,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>565</v>
+        <v>577</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -547,7 +547,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>59792</v>
+        <v>61474</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -562,7 +562,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3919</v>
+        <v>4001</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -592,7 +592,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>9959</v>
+        <v>10070</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -607,7 +607,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>4203</v>
+        <v>4342</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -622,7 +622,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -637,7 +637,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>605</v>
+        <v>620</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -652,7 +652,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>10588</v>
+        <v>10952</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -682,7 +682,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2443</v>
+        <v>2483</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -697,7 +697,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>23834</v>
+        <v>23990</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -712,7 +712,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -757,7 +757,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>12695</v>
+        <v>12812</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -772,7 +772,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>8025</v>
+        <v>8203</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -787,7 +787,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>684</v>
+        <v>691</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -802,7 +802,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>378003</v>
+        <v>389492</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -832,7 +832,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>15518</v>
+        <v>15859</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -847,7 +847,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -892,7 +892,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -907,7 +907,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>49</v>
+        <v>71</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -922,7 +922,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>939</v>
+        <v>991</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -937,7 +937,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>23698</v>
+        <v>23912</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -952,7 +952,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -982,7 +982,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>25317</v>
+        <v>25742</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -1012,7 +1012,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>69177</v>
+        <v>70886</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -1057,7 +1057,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>748</v>
+        <v>756</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -1072,7 +1072,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3104</v>
+        <v>3143</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -1087,7 +1087,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -1102,7 +1102,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>6643</v>
+        <v>6815</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -1117,7 +1117,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>538</v>
+        <v>581</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -1147,7 +1147,7 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>28640</v>
+        <v>28920</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -1162,7 +1162,7 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>2464</v>
+        <v>2475</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -1177,7 +1177,7 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>3426</v>
+        <v>3451</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -1222,7 +1222,7 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>17744</v>
+        <v>18158</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -1237,7 +1237,7 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>12820</v>
+        <v>12998</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -1252,7 +1252,7 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>2082</v>
+        <v>2098</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -1267,7 +1267,7 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -1297,7 +1297,7 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>1104</v>
+        <v>1137</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -1327,7 +1327,7 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>3439</v>
+        <v>3531</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -1357,7 +1357,7 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>893</v>
+        <v>903</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -1372,7 +1372,7 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>101713</v>
+        <v>102872</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -1402,7 +1402,7 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -1417,7 +1417,7 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>3959</v>
+        <v>4007</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -1432,7 +1432,7 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>80680</v>
+        <v>81610</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>771</v>
+        <v>777</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
@@ -1462,7 +1462,7 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>9627</v>
+        <v>9950</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -1492,7 +1492,7 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>7279</v>
+        <v>7395</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
@@ -1507,7 +1507,7 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -1522,7 +1522,7 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -1537,7 +1537,7 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -1567,7 +1567,7 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>4976</v>
+        <v>5095</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -1582,7 +1582,7 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>25580</v>
+        <v>26420</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -1612,7 +1612,7 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>182553</v>
+        <v>192311</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -1627,7 +1627,7 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>43777</v>
+        <v>44500</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
@@ -1642,7 +1642,7 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>67525</v>
+        <v>69120</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
@@ -1657,7 +1657,7 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>15060</v>
+        <v>15217</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
@@ -1672,7 +1672,7 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>4847</v>
+        <v>4872</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>6345</v>
+        <v>6350</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
@@ -1702,7 +1702,7 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>117633</v>
+        <v>119021</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
@@ -1717,7 +1717,7 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>738</v>
+        <v>756</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
@@ -1732,7 +1732,7 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>9682</v>
+        <v>9890</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>8372</v>
+        <v>8563</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>3297</v>
+        <v>3311</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
@@ -1777,7 +1777,7 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>2519</v>
+        <v>2603</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
@@ -1792,7 +1792,7 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>1806</v>
+        <v>1813</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
@@ -1807,7 +1807,7 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>2105</v>
+        <v>2115</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
@@ -1822,7 +1822,7 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>1468</v>
+        <v>1511</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
@@ -1837,7 +1837,7 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>1557</v>
+        <v>1578</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
@@ -1867,7 +1867,7 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>2071</v>
+        <v>2101</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
@@ -1882,7 +1882,7 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>6995</v>
+        <v>7118</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>2919</v>
+        <v>2947</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
@@ -1942,7 +1942,7 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
@@ -1957,7 +1957,7 @@
         </is>
       </c>
       <c r="B102" t="n">
-        <v>3785</v>
+        <v>3841</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
@@ -1972,7 +1972,7 @@
         </is>
       </c>
       <c r="B103" t="n">
-        <v>786</v>
+        <v>790</v>
       </c>
       <c r="C103" t="inlineStr">
         <is>
@@ -1987,7 +1987,7 @@
         </is>
       </c>
       <c r="B104" t="n">
-        <v>563</v>
+        <v>593</v>
       </c>
       <c r="C104" t="inlineStr">
         <is>
@@ -2002,7 +2002,7 @@
         </is>
       </c>
       <c r="B105" t="n">
-        <v>1142</v>
+        <v>1147</v>
       </c>
       <c r="C105" t="inlineStr">
         <is>
@@ -2017,7 +2017,7 @@
         </is>
       </c>
       <c r="B106" t="n">
-        <v>1389</v>
+        <v>1426</v>
       </c>
       <c r="C106" t="inlineStr">
         <is>
@@ -2047,7 +2047,7 @@
         </is>
       </c>
       <c r="B108" t="n">
-        <v>444</v>
+        <v>462</v>
       </c>
       <c r="C108" t="inlineStr">
         <is>
@@ -2062,7 +2062,7 @@
         </is>
       </c>
       <c r="B109" t="n">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C109" t="inlineStr">
         <is>
@@ -2107,7 +2107,7 @@
         </is>
       </c>
       <c r="B112" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C112" t="inlineStr">
         <is>
@@ -2122,7 +2122,7 @@
         </is>
       </c>
       <c r="B113" t="n">
-        <v>213048</v>
+        <v>214853</v>
       </c>
       <c r="C113" t="inlineStr">
         <is>
@@ -2137,7 +2137,7 @@
         </is>
       </c>
       <c r="B114" t="n">
-        <v>5616</v>
+        <v>5709</v>
       </c>
       <c r="C114" t="inlineStr">
         <is>
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="B116" t="n">
-        <v>56</v>
+        <v>78</v>
       </c>
       <c r="C116" t="inlineStr">
         <is>
@@ -2182,7 +2182,7 @@
         </is>
       </c>
       <c r="B117" t="n">
-        <v>1441</v>
+        <v>1463</v>
       </c>
       <c r="C117" t="inlineStr">
         <is>
@@ -2197,7 +2197,7 @@
         </is>
       </c>
       <c r="B118" t="n">
-        <v>8959</v>
+        <v>8988</v>
       </c>
       <c r="C118" t="inlineStr">
         <is>
@@ -2212,7 +2212,7 @@
         </is>
       </c>
       <c r="B119" t="n">
-        <v>802</v>
+        <v>807</v>
       </c>
       <c r="C119" t="inlineStr">
         <is>
@@ -2227,7 +2227,7 @@
         </is>
       </c>
       <c r="B120" t="n">
-        <v>608</v>
+        <v>624</v>
       </c>
       <c r="C120" t="inlineStr">
         <is>
@@ -2242,7 +2242,7 @@
         </is>
       </c>
       <c r="B121" t="n">
-        <v>3102</v>
+        <v>3136</v>
       </c>
       <c r="C121" t="inlineStr">
         <is>
@@ -2257,7 +2257,7 @@
         </is>
       </c>
       <c r="B122" t="n">
-        <v>17179</v>
+        <v>17269</v>
       </c>
       <c r="C122" t="inlineStr">
         <is>
@@ -2332,7 +2332,7 @@
         </is>
       </c>
       <c r="B127" t="n">
-        <v>709</v>
+        <v>736</v>
       </c>
       <c r="C127" t="inlineStr">
         <is>
@@ -2347,7 +2347,7 @@
         </is>
       </c>
       <c r="B128" t="n">
-        <v>1909</v>
+        <v>1942</v>
       </c>
       <c r="C128" t="inlineStr">
         <is>
@@ -2362,7 +2362,7 @@
         </is>
       </c>
       <c r="B129" t="n">
-        <v>16600</v>
+        <v>16999</v>
       </c>
       <c r="C129" t="inlineStr">
         <is>
@@ -2377,7 +2377,7 @@
         </is>
       </c>
       <c r="B130" t="n">
-        <v>6192</v>
+        <v>6207</v>
       </c>
       <c r="C130" t="inlineStr">
         <is>
@@ -2392,7 +2392,7 @@
         </is>
       </c>
       <c r="B131" t="n">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="C131" t="inlineStr">
         <is>
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="B132" t="n">
-        <v>5470</v>
+        <v>5802</v>
       </c>
       <c r="C132" t="inlineStr">
         <is>
@@ -2422,7 +2422,7 @@
         </is>
       </c>
       <c r="B133" t="n">
-        <v>57954</v>
+        <v>59440</v>
       </c>
       <c r="C133" t="inlineStr">
         <is>
@@ -2437,7 +2437,7 @@
         </is>
       </c>
       <c r="B134" t="n">
-        <v>16141</v>
+        <v>16674</v>
       </c>
       <c r="C134" t="inlineStr">
         <is>
@@ -2452,7 +2452,7 @@
         </is>
       </c>
       <c r="B135" t="n">
-        <v>62734</v>
+        <v>65222</v>
       </c>
       <c r="C135" t="inlineStr">
         <is>
@@ -2467,7 +2467,7 @@
         </is>
       </c>
       <c r="B136" t="n">
-        <v>16951</v>
+        <v>16959</v>
       </c>
       <c r="C136" t="inlineStr">
         <is>
@@ -2482,7 +2482,7 @@
         </is>
       </c>
       <c r="B137" t="n">
-        <v>391</v>
+        <v>418</v>
       </c>
       <c r="C137" t="inlineStr">
         <is>
@@ -2497,7 +2497,7 @@
         </is>
       </c>
       <c r="B138" t="n">
-        <v>26618</v>
+        <v>27267</v>
       </c>
       <c r="C138" t="inlineStr">
         <is>
@@ -2512,7 +2512,7 @@
         </is>
       </c>
       <c r="B139" t="n">
-        <v>104545</v>
+        <v>106108</v>
       </c>
       <c r="C139" t="inlineStr">
         <is>
@@ -2527,7 +2527,7 @@
         </is>
       </c>
       <c r="B140" t="n">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C140" t="inlineStr">
         <is>
@@ -2557,7 +2557,7 @@
         </is>
       </c>
       <c r="B142" t="n">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C142" t="inlineStr">
         <is>
@@ -2602,7 +2602,7 @@
         </is>
       </c>
       <c r="B145" t="n">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C145" t="inlineStr">
         <is>
@@ -2632,7 +2632,7 @@
         </is>
       </c>
       <c r="B147" t="n">
-        <v>6846</v>
+        <v>6887</v>
       </c>
       <c r="C147" t="inlineStr">
         <is>
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="B148" t="n">
-        <v>1095</v>
+        <v>1099</v>
       </c>
       <c r="C148" t="inlineStr">
         <is>
@@ -2662,7 +2662,7 @@
         </is>
       </c>
       <c r="B149" t="n">
-        <v>6058</v>
+        <v>6196</v>
       </c>
       <c r="C149" t="inlineStr">
         <is>
@@ -2677,7 +2677,7 @@
         </is>
       </c>
       <c r="B150" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C150" t="inlineStr">
         <is>
@@ -2722,7 +2722,7 @@
         </is>
       </c>
       <c r="B153" t="n">
-        <v>11244</v>
+        <v>11458</v>
       </c>
       <c r="C153" t="inlineStr">
         <is>
@@ -2737,7 +2737,7 @@
         </is>
       </c>
       <c r="B154" t="n">
-        <v>4172</v>
+        <v>4203</v>
       </c>
       <c r="C154" t="inlineStr">
         <is>
@@ -2767,7 +2767,7 @@
         </is>
       </c>
       <c r="B156" t="n">
-        <v>678</v>
+        <v>689</v>
       </c>
       <c r="C156" t="inlineStr">
         <is>
@@ -2782,7 +2782,7 @@
         </is>
       </c>
       <c r="B157" t="n">
-        <v>53887</v>
+        <v>54125</v>
       </c>
       <c r="C157" t="inlineStr">
         <is>
@@ -2812,7 +2812,7 @@
         </is>
       </c>
       <c r="B159" t="n">
-        <v>77102</v>
+        <v>77591</v>
       </c>
       <c r="C159" t="inlineStr">
         <is>
@@ -2827,7 +2827,7 @@
         </is>
       </c>
       <c r="B160" t="n">
-        <v>620</v>
+        <v>638</v>
       </c>
       <c r="C160" t="inlineStr">
         <is>
@@ -2842,7 +2842,7 @@
         </is>
       </c>
       <c r="B161" t="n">
-        <v>2287</v>
+        <v>2300</v>
       </c>
       <c r="C161" t="inlineStr">
         <is>
@@ -2857,7 +2857,7 @@
         </is>
       </c>
       <c r="B162" t="n">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="C162" t="inlineStr">
         <is>
@@ -2872,7 +2872,7 @@
         </is>
       </c>
       <c r="B163" t="n">
-        <v>13825</v>
+        <v>13923</v>
       </c>
       <c r="C163" t="inlineStr">
         <is>
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="B164" t="n">
-        <v>10532</v>
+        <v>10594</v>
       </c>
       <c r="C164" t="inlineStr">
         <is>
@@ -2902,7 +2902,7 @@
         </is>
       </c>
       <c r="B165" t="n">
-        <v>1468</v>
+        <v>1526</v>
       </c>
       <c r="C165" t="inlineStr">
         <is>
@@ -2917,7 +2917,7 @@
         </is>
       </c>
       <c r="B166" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C166" t="inlineStr">
         <is>
@@ -2962,7 +2962,7 @@
         </is>
       </c>
       <c r="B169" t="n">
-        <v>108</v>
+        <v>129</v>
       </c>
       <c r="C169" t="inlineStr">
         <is>
@@ -2977,7 +2977,7 @@
         </is>
       </c>
       <c r="B170" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C170" t="inlineStr">
         <is>
@@ -3022,7 +3022,7 @@
         </is>
       </c>
       <c r="B173" t="n">
-        <v>9918</v>
+        <v>10231</v>
       </c>
       <c r="C173" t="inlineStr">
         <is>
@@ -3037,7 +3037,7 @@
         </is>
       </c>
       <c r="B174" t="n">
-        <v>36613</v>
+        <v>38011</v>
       </c>
       <c r="C174" t="inlineStr">
         <is>
@@ -3052,7 +3052,7 @@
         </is>
       </c>
       <c r="B175" t="n">
-        <v>568470</v>
+        <v>571921</v>
       </c>
       <c r="C175" t="inlineStr">
         <is>
@@ -3082,7 +3082,7 @@
         </is>
       </c>
       <c r="B177" t="n">
-        <v>42129</v>
+        <v>43884</v>
       </c>
       <c r="C177" t="inlineStr">
         <is>
@@ -3097,7 +3097,7 @@
         </is>
       </c>
       <c r="B178" t="n">
-        <v>1559</v>
+        <v>1569</v>
       </c>
       <c r="C178" t="inlineStr">
         <is>
@@ -3112,7 +3112,7 @@
         </is>
       </c>
       <c r="B179" t="n">
-        <v>127557</v>
+        <v>127670</v>
       </c>
       <c r="C179" t="inlineStr">
         <is>
@@ -3127,7 +3127,7 @@
         </is>
       </c>
       <c r="B180" t="n">
-        <v>2022</v>
+        <v>2283</v>
       </c>
       <c r="C180" t="inlineStr">
         <is>
@@ -3142,7 +3142,7 @@
         </is>
       </c>
       <c r="B181" t="n">
-        <v>639</v>
+        <v>642</v>
       </c>
       <c r="C181" t="inlineStr">
         <is>
@@ -3157,7 +3157,7 @@
         </is>
       </c>
       <c r="B182" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C182" t="inlineStr">
         <is>
@@ -3172,7 +3172,7 @@
         </is>
       </c>
       <c r="B183" t="n">
-        <v>1944</v>
+        <v>2028</v>
       </c>
       <c r="C183" t="inlineStr">
         <is>
@@ -3202,7 +3202,7 @@
         </is>
       </c>
       <c r="B185" t="n">
-        <v>3078</v>
+        <v>3151</v>
       </c>
       <c r="C185" t="inlineStr">
         <is>
@@ -3217,7 +3217,7 @@
         </is>
       </c>
       <c r="B186" t="n">
-        <v>1138</v>
+        <v>1175</v>
       </c>
       <c r="C186" t="inlineStr">
         <is>
@@ -3232,7 +3232,7 @@
         </is>
       </c>
       <c r="B187" t="n">
-        <v>1236</v>
+        <v>1245</v>
       </c>
       <c r="C187" t="inlineStr">
         <is>
@@ -3247,7 +3247,7 @@
         </is>
       </c>
       <c r="B188" t="n">
-        <v>1554</v>
+        <v>1556</v>
       </c>
       <c r="C188" t="inlineStr">
         <is>

--- a/deathmapdata.xlsx
+++ b/deathmapdata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C188"/>
+  <dimension ref="A1:C271"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -457,7 +457,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2572</v>
+        <v>2637</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2372</v>
+        <v>2397</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3198</v>
+        <v>3270</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -517,7 +517,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>577</v>
+        <v>602</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -532,7 +532,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -547,7 +547,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>61474</v>
+        <v>64252</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -562,7 +562,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>4001</v>
+        <v>4139</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -577,7 +577,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>910</v>
+        <v>3</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -588,2668 +588,3913 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Austria</t>
+          <t>Australia</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>10070</v>
+        <v>54</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>AUT</t>
+          <t>AUS</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Azerbaijan</t>
+          <t>Australia</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>4342</v>
+        <v>0</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>AZE</t>
+          <t>AUS</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Bahamas</t>
+          <t>Australia</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>196</v>
+        <v>7</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>BHM</t>
+          <t>AUS</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Bahrain</t>
+          <t>Australia</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>620</v>
+        <v>4</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>BHR</t>
+          <t>AUS</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Bangladesh</t>
+          <t>Australia</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>10952</v>
+        <v>13</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>BGD</t>
+          <t>AUS</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Barbados</t>
+          <t>Australia</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>44</v>
+        <v>820</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>BRB</t>
+          <t>AUS</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Belarus</t>
+          <t>Australia</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2483</v>
+        <v>9</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>BLR</t>
+          <t>AUS</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Belgium</t>
+          <t>Austria</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>23990</v>
+        <v>10245</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>BEL</t>
+          <t>AUT</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Belize</t>
+          <t>Azerbaijan</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>321</v>
+        <v>4561</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>BLZ</t>
+          <t>AZE</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Benin</t>
+          <t>Bahamas</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>97</v>
+        <v>209</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>BEN</t>
+          <t>BHM</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Bhutan</t>
+          <t>Bahrain</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1</v>
+        <v>651</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>BTN</t>
+          <t>BHR</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Bolivia</t>
+          <t>Bangladesh</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>12812</v>
+        <v>11579</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>BOL</t>
+          <t>BGD</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Bosnia and Herzegovina</t>
+          <t>Barbados</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>8203</v>
+        <v>44</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>BIH</t>
+          <t>BRB</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Botswana</t>
+          <t>Belarus</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>691</v>
+        <v>2562</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>BWA</t>
+          <t>BLR</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Brazil</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>389492</v>
+        <v>24291</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>BRA</t>
+          <t>BEL</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Brunei</t>
+          <t>Belize</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>3</v>
+        <v>323</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>BRN</t>
+          <t>BLZ</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Bulgaria</t>
+          <t>Benin</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>15859</v>
+        <v>99</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>BGR</t>
+          <t>BEN</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Burkina Faso</t>
+          <t>Bhutan</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>156</v>
+        <v>1</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>BFA</t>
+          <t>BTN</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Burma</t>
+          <t>Bolivia</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>3206</v>
+        <v>13009</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>MMR</t>
+          <t>BOL</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Burundi</t>
+          <t>Bosnia and Herzegovina</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>6</v>
+        <v>8551</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>BDI</t>
+          <t>BIH</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Cabo Verde</t>
+          <t>Botswana</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>201</v>
+        <v>712</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>CPV</t>
+          <t>BWA</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Cambodia</t>
+          <t>Brazil</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>71</v>
+        <v>407639</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>KHM</t>
+          <t>BRA</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Cameroon</t>
+          <t>Brunei</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>991</v>
+        <v>3</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>CMR</t>
+          <t>BRN</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>Bulgaria</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>23912</v>
+        <v>16492</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>CAN</t>
+          <t>BGR</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Central African Republic</t>
+          <t>Burkina Faso</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>85</v>
+        <v>157</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>CAF</t>
+          <t>BFA</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Chad</t>
+          <t>Burma</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>169</v>
+        <v>3209</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>TCD</t>
+          <t>MMR</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Chile</t>
+          <t>Burundi</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>25742</v>
+        <v>6</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>CHL</t>
+          <t>BDI</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>Cabo Verde</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>4845</v>
+        <v>223</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>CHN</t>
+          <t>CPV</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Colombia</t>
+          <t>Cambodia</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>70886</v>
+        <v>103</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>COL</t>
+          <t>KHM</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Comoros</t>
+          <t>Cameroon</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>146</v>
+        <v>1107</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>COM</t>
+          <t>CMR</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Congo (Brazzaville)</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>139</v>
+        <v>2086</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>COG</t>
+          <t>CAN</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Congo (Kinshasa)</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>756</v>
+        <v>1581</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>COD</t>
+          <t>CAN</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Costa Rica</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3143</v>
+        <v>1</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>CRI</t>
+          <t>CAN</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Cote d'Ivoire</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>281</v>
+        <v>0</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>CIV</t>
+          <t>CAN</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Croatia</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>6815</v>
+        <v>978</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>HRV</t>
+          <t>CAN</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Cuba</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>581</v>
+        <v>37</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>CUB</t>
+          <t>CAN</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Cyprus</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>298</v>
+        <v>6</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>CYP</t>
+          <t>CAN</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Czechia</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>28920</v>
+        <v>0</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>CZE</t>
+          <t>CAN</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>2475</v>
+        <v>67</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>DNK</t>
+          <t>CAN</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Djibouti</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>132</v>
+        <v>4</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>DJI</t>
+          <t>CAN</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Dominica</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0</v>
+        <v>8070</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>DMA</t>
+          <t>CAN</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Dominican Republic</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>3451</v>
+        <v>0</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>DOM</t>
+          <t>CAN</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Ecuador</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>18158</v>
+        <v>10942</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>ECU</t>
+          <t>CAN</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Egypt</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>12998</v>
+        <v>0</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>EGY</t>
+          <t>CAN</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>El Salvador</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>2098</v>
+        <v>495</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>SLV</t>
+          <t>CAN</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Equatorial Guinea</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>107</v>
+        <v>2</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>GNQ</t>
+          <t>CAN</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Eritrea</t>
+          <t>Central African Republic</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>10</v>
+        <v>88</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>ERI</t>
+          <t>CAF</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Estonia</t>
+          <t>Chad</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>1137</v>
+        <v>170</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>EST</t>
+          <t>TCD</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Eswatini</t>
+          <t>Chile</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>671</v>
+        <v>26561</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>SWZ</t>
+          <t>CHL</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Ethiopia</t>
+          <t>China</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>3531</v>
+        <v>6</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>ETH</t>
+          <t>CHN</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Fiji</t>
+          <t>China</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>FJI</t>
+          <t>CHN</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Finland</t>
+          <t>China</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>903</v>
+        <v>6</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>FIN</t>
+          <t>CHN</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>China</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>102872</v>
+        <v>1</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>FRA</t>
+          <t>CHN</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Gabon</t>
+          <t>China</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>138</v>
+        <v>2</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>GAB</t>
+          <t>CHN</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Gambia</t>
+          <t>China</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>173</v>
+        <v>8</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>GMB</t>
+          <t>CHN</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Georgia</t>
+          <t>China</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>4007</v>
+        <v>2</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>GEO</t>
+          <t>CHN</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>China</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>81610</v>
+        <v>2</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>DEU</t>
+          <t>CHN</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Ghana</t>
+          <t>China</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>777</v>
+        <v>6</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>GHA</t>
+          <t>CHN</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Greece</t>
+          <t>China</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>9950</v>
+        <v>7</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>GRC</t>
+          <t>CHN</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Grenada</t>
+          <t>China</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>GRD</t>
+          <t>CHN</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Guatemala</t>
+          <t>China</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>7395</v>
+        <v>22</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>GTM</t>
+          <t>CHN</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Guinea</t>
+          <t>China</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>140</v>
+        <v>210</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>GIN</t>
+          <t>CHN</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Guinea-Bissau</t>
+          <t>China</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>67</v>
+        <v>4512</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>GNB</t>
+          <t>CHN</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Guyana</t>
+          <t>China</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>279</v>
+        <v>4</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>GUY</t>
+          <t>CHN</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Haiti</t>
+          <t>China</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>251</v>
+        <v>1</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>HTI</t>
+          <t>CHN</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Honduras</t>
+          <t>China</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>5095</v>
+        <v>0</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>HND</t>
+          <t>CHN</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Hungary</t>
+          <t>China</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>26420</v>
+        <v>1</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>HUN</t>
+          <t>CHN</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Iceland</t>
+          <t>China</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>ISL</t>
+          <t>CHN</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>India</t>
+          <t>China</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>192311</v>
+        <v>2</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>CHN</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Indonesia</t>
+          <t>China</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>44500</v>
+        <v>0</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>IDN</t>
+          <t>CHN</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Iran</t>
+          <t>China</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>69120</v>
+        <v>0</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>IRN</t>
+          <t>CHN</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Iraq</t>
+          <t>China</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>15217</v>
+        <v>0</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>IRQ</t>
+          <t>CHN</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Ireland</t>
+          <t>China</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>4872</v>
+        <v>3</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>IRL</t>
+          <t>CHN</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Israel</t>
+          <t>China</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>6350</v>
+        <v>7</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>ISR</t>
+          <t>CHN</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>China</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>119021</v>
+        <v>7</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>ITA</t>
+          <t>CHN</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Jamaica</t>
+          <t>China</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>756</v>
+        <v>0</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>JAM</t>
+          <t>CHN</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>China</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>9890</v>
+        <v>3</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>JPN</t>
+          <t>CHN</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Jordan</t>
+          <t>China</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>8563</v>
+        <v>3</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>JOR</t>
+          <t>CHN</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Kazakhstan</t>
+          <t>China</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>3311</v>
+        <v>0</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>KAZ</t>
+          <t>CHN</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Kenya</t>
+          <t>China</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>2603</v>
+        <v>0</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>KEN</t>
+          <t>CHN</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Korea, South</t>
+          <t>China</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>1813</v>
+        <v>3</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>KOR</t>
+          <t>CHN</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Kosovo</t>
+          <t>China</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>2115</v>
+        <v>2</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>KSV</t>
+          <t>CHN</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Kuwait</t>
+          <t>China</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>1511</v>
+        <v>1</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>KWT</t>
+          <t>CHN</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Kyrgyzstan</t>
+          <t>Colombia</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>1578</v>
+        <v>74477</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>KGZ</t>
+          <t>COL</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Laos</t>
+          <t>Comoros</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>0</v>
+        <v>146</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>LAO</t>
+          <t>COM</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Latvia</t>
+          <t>Congo (Brazzaville)</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>2101</v>
+        <v>144</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>LVA</t>
+          <t>COG</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Lebanon</t>
+          <t>Congo (Kinshasa)</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>7118</v>
+        <v>768</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>LBN</t>
+          <t>COD</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Lesotho</t>
+          <t>Costa Rica</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>316</v>
+        <v>3231</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>LSO</t>
+          <t>CRI</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Liberia</t>
+          <t>Cote d'Ivoire</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>85</v>
+        <v>286</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>LBR</t>
+          <t>CIV</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Libya</t>
+          <t>Croatia</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>2947</v>
+        <v>7182</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>LBY</t>
+          <t>HRV</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Liechtenstein</t>
+          <t>Cuba</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>57</v>
+        <v>664</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>LIE</t>
+          <t>CUB</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Lithuania</t>
+          <t>Cyprus</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>3841</v>
+        <v>313</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>LTU</t>
+          <t>CYP</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Luxembourg</t>
+          <t>Czechia</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>790</v>
+        <v>29343</v>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>LUX</t>
+          <t>CZE</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Madagascar</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>593</v>
+        <v>1</v>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>MDG</t>
+          <t>DNK</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Malawi</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>1147</v>
+        <v>0</v>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>MWI</t>
+          <t>DNK</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Malaysia</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>1426</v>
+        <v>2490</v>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>MYS</t>
+          <t>DNK</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Maldives</t>
+          <t>Djibouti</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>71</v>
+        <v>146</v>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>MDV</t>
+          <t>DJI</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Mali</t>
+          <t>Dominica</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>462</v>
+        <v>0</v>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>MLI</t>
+          <t>DMA</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Malta</t>
+          <t>Dominican Republic</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>412</v>
+        <v>3493</v>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>MLT</t>
+          <t>DOM</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Marshall Islands</t>
+          <t>Ecuador</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>0</v>
+        <v>18740</v>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>MHL</t>
+          <t>ECU</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Mauritania</t>
+          <t>Egypt</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>454</v>
+        <v>13469</v>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>MRT</t>
+          <t>EGY</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Mauritius</t>
+          <t>El Salvador</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>16</v>
+        <v>2132</v>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>MUS</t>
+          <t>SLV</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Mexico</t>
+          <t>Equatorial Guinea</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>214853</v>
+        <v>112</v>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>MEX</t>
+          <t>GNQ</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Moldova</t>
+          <t>Eritrea</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>5709</v>
+        <v>10</v>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>MDA</t>
+          <t>ERI</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Monaco</t>
+          <t>Estonia</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>31</v>
+        <v>1168</v>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>MCO</t>
+          <t>EST</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Mongolia</t>
+          <t>Eswatini</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>78</v>
+        <v>671</v>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>MNG</t>
+          <t>SWZ</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Montenegro</t>
+          <t>Ethiopia</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>1463</v>
+        <v>3726</v>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>MNE</t>
+          <t>ETH</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Morocco</t>
+          <t>Fiji</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>8988</v>
+        <v>2</v>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>MAR</t>
+          <t>FJI</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Mozambique</t>
+          <t>Finland</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>807</v>
+        <v>914</v>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>MOZ</t>
+          <t>FIN</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Namibia</t>
+          <t>France</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>624</v>
+        <v>101</v>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>NAM</t>
+          <t>FRA</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Nepal</t>
+          <t>France</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>3136</v>
+        <v>141</v>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>NPL</t>
+          <t>FRA</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>France</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>17269</v>
+        <v>228</v>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>NLD</t>
+          <t>FRA</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>New Zealand</t>
+          <t>France</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>26</v>
+        <v>79</v>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>NZL</t>
+          <t>FRA</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Nicaragua</t>
+          <t>France</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>NIC</t>
+          <t>FRA</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Niger</t>
+          <t>France</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>191</v>
+        <v>0</v>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>NER</t>
+          <t>FRA</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Nigeria</t>
+          <t>France</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>2061</v>
+        <v>148</v>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>NGA</t>
+          <t>FRA</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Norway</t>
+          <t>France</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>736</v>
+        <v>1</v>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>NOR</t>
+          <t>FRA</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Oman</t>
+          <t>France</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>1942</v>
+        <v>0</v>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>OMN</t>
+          <t>FRA</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Pakistan</t>
+          <t>France</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>16999</v>
+        <v>12</v>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>PAK</t>
+          <t>FRA</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Panama</t>
+          <t>France</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>6207</v>
+        <v>7</v>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>PAN</t>
+          <t>FRA</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Papua New Guinea</t>
+          <t>France</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>102</v>
+        <v>104093</v>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>PNG</t>
+          <t>FRA</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Paraguay</t>
+          <t>Gabon</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>5802</v>
+        <v>139</v>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>PRY</t>
+          <t>GAB</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Peru</t>
+          <t>Gambia</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>59440</v>
+        <v>175</v>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>PER</t>
+          <t>GMB</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Philippines</t>
+          <t>Georgia</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>16674</v>
+        <v>4151</v>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>PHL</t>
+          <t>GEO</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>65222</v>
+        <v>83292</v>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>POL</t>
+          <t>DEU</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Ghana</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>16959</v>
+        <v>779</v>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>PRT</t>
+          <t>GHA</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Qatar</t>
+          <t>Greece</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>418</v>
+        <v>10453</v>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>QAT</t>
+          <t>GRC</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Romania</t>
+          <t>Grenada</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>27267</v>
+        <v>1</v>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>ROU</t>
+          <t>GRD</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Russia</t>
+          <t>Guatemala</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>106108</v>
+        <v>7558</v>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>RUS</t>
+          <t>GTM</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Rwanda</t>
+          <t>Guinea</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>328</v>
+        <v>145</v>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>RWA</t>
+          <t>GIN</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Saint Kitts and Nevis</t>
+          <t>Guinea-Bissau</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>KNA</t>
+          <t>GNB</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Saint Lucia</t>
+          <t>Guyana</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>70</v>
+        <v>299</v>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>LCA</t>
+          <t>GUY</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Saint Vincent and the Grenadines</t>
+          <t>Haiti</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>10</v>
+        <v>254</v>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>VCT</t>
+          <t>HTI</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Samoa</t>
+          <t>Honduras</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>0</v>
+        <v>5318</v>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>WSM</t>
+          <t>HND</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>San Marino</t>
+          <t>Hungary</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>89</v>
+        <v>27802</v>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>SMR</t>
+          <t>HUN</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Sao Tome and Principe</t>
+          <t>Iceland</t>
         </is>
       </c>
       <c r="B146" t="n">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>STP</t>
+          <t>ISL</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Saudi Arabia</t>
+          <t>India</t>
         </is>
       </c>
       <c r="B147" t="n">
-        <v>6887</v>
+        <v>218959</v>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>SAU</t>
+          <t>IND</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Senegal</t>
+          <t>Indonesia</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>1099</v>
+        <v>45796</v>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>SEN</t>
+          <t>IDN</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Serbia</t>
+          <t>Iran</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>6196</v>
+        <v>72484</v>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>SRB</t>
+          <t>IRN</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Seychelles</t>
+          <t>Iraq</t>
         </is>
       </c>
       <c r="B150" t="n">
-        <v>26</v>
+        <v>15536</v>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>SYC</t>
+          <t>IRQ</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Sierra Leone</t>
+          <t>Ireland</t>
         </is>
       </c>
       <c r="B151" t="n">
-        <v>79</v>
+        <v>4906</v>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>SLE</t>
+          <t>IRL</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Singapore</t>
+          <t>Israel</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>30</v>
+        <v>6366</v>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>SGP</t>
+          <t>ISR</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Slovakia</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="B153" t="n">
-        <v>11458</v>
+        <v>121177</v>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>SVK</t>
+          <t>ITA</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Slovenia</t>
+          <t>Jamaica</t>
         </is>
       </c>
       <c r="B154" t="n">
-        <v>4203</v>
+        <v>784</v>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>SVN</t>
+          <t>JAM</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Solomon Islands</t>
+          <t>Japan</t>
         </is>
       </c>
       <c r="B155" t="n">
-        <v>0</v>
+        <v>10342</v>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>SLB</t>
+          <t>JPN</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Somalia</t>
+          <t>Jordan</t>
         </is>
       </c>
       <c r="B156" t="n">
-        <v>689</v>
+        <v>8897</v>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>SOM</t>
+          <t>JOR</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>South Africa</t>
+          <t>Kazakhstan</t>
         </is>
       </c>
       <c r="B157" t="n">
-        <v>54125</v>
+        <v>3349</v>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>ZAF</t>
+          <t>KAZ</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>South Sudan</t>
+          <t>Kenya</t>
         </is>
       </c>
       <c r="B158" t="n">
-        <v>114</v>
+        <v>2763</v>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>SSD</t>
+          <t>KEN</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Korea, South</t>
         </is>
       </c>
       <c r="B159" t="n">
-        <v>77591</v>
+        <v>1834</v>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>ESP</t>
+          <t>KOR</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Sri Lanka</t>
+          <t>Kosovo</t>
         </is>
       </c>
       <c r="B160" t="n">
-        <v>638</v>
+        <v>2134</v>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>LKA</t>
+          <t>KSV</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Sudan</t>
+          <t>Kuwait</t>
         </is>
       </c>
       <c r="B161" t="n">
-        <v>2300</v>
+        <v>1578</v>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>SDN</t>
+          <t>KWT</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Suriname</t>
+          <t>Kyrgyzstan</t>
         </is>
       </c>
       <c r="B162" t="n">
-        <v>195</v>
+        <v>1619</v>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>SUR</t>
+          <t>KGZ</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Laos</t>
         </is>
       </c>
       <c r="B163" t="n">
-        <v>13923</v>
+        <v>0</v>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>SWE</t>
+          <t>LAO</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Switzerland</t>
+          <t>Latvia</t>
         </is>
       </c>
       <c r="B164" t="n">
-        <v>10594</v>
+        <v>2144</v>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>CHE</t>
+          <t>LVA</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Syria</t>
+          <t>Lebanon</t>
         </is>
       </c>
       <c r="B165" t="n">
-        <v>1526</v>
+        <v>7324</v>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>SYR</t>
+          <t>LBN</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Taiwan*</t>
+          <t>Lesotho</t>
         </is>
       </c>
       <c r="B166" t="n">
-        <v>12</v>
+        <v>318</v>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>TWN</t>
+          <t>LSO</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Tajikistan</t>
+          <t>Liberia</t>
         </is>
       </c>
       <c r="B167" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>TJK</t>
+          <t>LBR</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Tanzania</t>
+          <t>Libya</t>
         </is>
       </c>
       <c r="B168" t="n">
-        <v>21</v>
+        <v>3039</v>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>TZA</t>
+          <t>LBY</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Thailand</t>
+          <t>Liechtenstein</t>
         </is>
       </c>
       <c r="B169" t="n">
-        <v>129</v>
+        <v>57</v>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>THA</t>
+          <t>LIE</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Timor-Leste</t>
+          <t>Lithuania</t>
         </is>
       </c>
       <c r="B170" t="n">
-        <v>3</v>
+        <v>3950</v>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>TLS</t>
+          <t>LTU</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Togo</t>
+          <t>Luxembourg</t>
         </is>
       </c>
       <c r="B171" t="n">
-        <v>121</v>
+        <v>796</v>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>TGO</t>
+          <t>LUX</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Trinidad and Tobago</t>
+          <t>Madagascar</t>
         </is>
       </c>
       <c r="B172" t="n">
-        <v>157</v>
+        <v>666</v>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>TTO</t>
+          <t>MDG</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Tunisia</t>
+          <t>Malawi</t>
         </is>
       </c>
       <c r="B173" t="n">
-        <v>10231</v>
+        <v>1148</v>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>TUN</t>
+          <t>MWI</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Turkey</t>
+          <t>Malaysia</t>
         </is>
       </c>
       <c r="B174" t="n">
-        <v>38011</v>
+        <v>1533</v>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>TUR</t>
+          <t>MYS</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>Maldives</t>
         </is>
       </c>
       <c r="B175" t="n">
-        <v>571921</v>
+        <v>74</v>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>MDV</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Uganda</t>
+          <t>Mali</t>
         </is>
       </c>
       <c r="B176" t="n">
-        <v>341</v>
+        <v>489</v>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>MLI</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>Malta</t>
         </is>
       </c>
       <c r="B177" t="n">
-        <v>43884</v>
+        <v>416</v>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>UKR</t>
+          <t>MLT</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>United Arab Emirates</t>
+          <t>Marshall Islands</t>
         </is>
       </c>
       <c r="B178" t="n">
-        <v>1569</v>
+        <v>0</v>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>ARE</t>
+          <t>MHL</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>United Kingdom</t>
+          <t>Mauritania</t>
         </is>
       </c>
       <c r="B179" t="n">
-        <v>127670</v>
+        <v>455</v>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>GBR</t>
+          <t>MRT</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Uruguay</t>
+          <t>Mauritius</t>
         </is>
       </c>
       <c r="B180" t="n">
-        <v>2283</v>
+        <v>17</v>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>URY</t>
+          <t>MUS</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Uzbekistan</t>
+          <t>Mexico</t>
         </is>
       </c>
       <c r="B181" t="n">
-        <v>642</v>
+        <v>217233</v>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>UZB</t>
+          <t>MEX</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>Vanuatu</t>
+          <t>Moldova</t>
         </is>
       </c>
       <c r="B182" t="n">
-        <v>1</v>
+        <v>5838</v>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>VUT</t>
+          <t>MDA</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>Venezuela</t>
+          <t>Monaco</t>
         </is>
       </c>
       <c r="B183" t="n">
-        <v>2028</v>
+        <v>32</v>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>VEN</t>
+          <t>MCO</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Vietnam</t>
+          <t>Mongolia</t>
         </is>
       </c>
       <c r="B184" t="n">
-        <v>35</v>
+        <v>119</v>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>VNM</t>
+          <t>MNG</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>West Bank and Gaza</t>
+          <t>Montenegro</t>
         </is>
       </c>
       <c r="B185" t="n">
-        <v>3151</v>
+        <v>1505</v>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>WBG</t>
+          <t>MNE</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>Yemen</t>
+          <t>Morocco</t>
         </is>
       </c>
       <c r="B186" t="n">
-        <v>1175</v>
+        <v>9028</v>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>YEM</t>
+          <t>MAR</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>Zambia</t>
+          <t>Mozambique</t>
         </is>
       </c>
       <c r="B187" t="n">
-        <v>1245</v>
+        <v>815</v>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>ZMB</t>
+          <t>MOZ</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
+          <t>Namibia</t>
+        </is>
+      </c>
+      <c r="B188" t="n">
+        <v>643</v>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>NAM</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>Nepal</t>
+        </is>
+      </c>
+      <c r="B189" t="n">
+        <v>3325</v>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>NPL</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>Netherlands</t>
+        </is>
+      </c>
+      <c r="B190" t="n">
+        <v>99</v>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>NLD</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>Netherlands</t>
+        </is>
+      </c>
+      <c r="B191" t="n">
+        <v>16</v>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>NLD</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>Netherlands</t>
+        </is>
+      </c>
+      <c r="B192" t="n">
+        <v>111</v>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>NLD</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>Netherlands</t>
+        </is>
+      </c>
+      <c r="B193" t="n">
+        <v>27</v>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>NLD</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>Netherlands</t>
+        </is>
+      </c>
+      <c r="B194" t="n">
+        <v>17172</v>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>NLD</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>New Zealand</t>
+        </is>
+      </c>
+      <c r="B195" t="n">
+        <v>26</v>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>NZL</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>Nicaragua</t>
+        </is>
+      </c>
+      <c r="B196" t="n">
+        <v>182</v>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>NIC</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>Niger</t>
+        </is>
+      </c>
+      <c r="B197" t="n">
+        <v>191</v>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>NER</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>Nigeria</t>
+        </is>
+      </c>
+      <c r="B198" t="n">
+        <v>2063</v>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>NGA</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="B199" t="n">
+        <v>756</v>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>NOR</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>Oman</t>
+        </is>
+      </c>
+      <c r="B200" t="n">
+        <v>2043</v>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>OMN</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>Pakistan</t>
+        </is>
+      </c>
+      <c r="B201" t="n">
+        <v>18149</v>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>PAK</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>Panama</t>
+        </is>
+      </c>
+      <c r="B202" t="n">
+        <v>6238</v>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>PAN</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>Papua New Guinea</t>
+        </is>
+      </c>
+      <c r="B203" t="n">
+        <v>115</v>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>PNG</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>Paraguay</t>
+        </is>
+      </c>
+      <c r="B204" t="n">
+        <v>6572</v>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>PRY</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>Peru</t>
+        </is>
+      </c>
+      <c r="B205" t="n">
+        <v>62126</v>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>PER</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>Philippines</t>
+        </is>
+      </c>
+      <c r="B206" t="n">
+        <v>17431</v>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>PHL</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>Poland</t>
+        </is>
+      </c>
+      <c r="B207" t="n">
+        <v>68068</v>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>POL</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>Portugal</t>
+        </is>
+      </c>
+      <c r="B208" t="n">
+        <v>16977</v>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>PRT</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>Qatar</t>
+        </is>
+      </c>
+      <c r="B209" t="n">
+        <v>472</v>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>QAT</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>Romania</t>
+        </is>
+      </c>
+      <c r="B210" t="n">
+        <v>28282</v>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>ROU</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>Russia</t>
+        </is>
+      </c>
+      <c r="B211" t="n">
+        <v>109011</v>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>RUS</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>Rwanda</t>
+        </is>
+      </c>
+      <c r="B212" t="n">
+        <v>337</v>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>RWA</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>Saint Kitts and Nevis</t>
+        </is>
+      </c>
+      <c r="B213" t="n">
+        <v>0</v>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>KNA</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>Saint Lucia</t>
+        </is>
+      </c>
+      <c r="B214" t="n">
+        <v>74</v>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>LCA</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>Saint Vincent and the Grenadines</t>
+        </is>
+      </c>
+      <c r="B215" t="n">
+        <v>11</v>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>VCT</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>Samoa</t>
+        </is>
+      </c>
+      <c r="B216" t="n">
+        <v>0</v>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>WSM</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>San Marino</t>
+        </is>
+      </c>
+      <c r="B217" t="n">
+        <v>90</v>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>SMR</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>Sao Tome and Principe</t>
+        </is>
+      </c>
+      <c r="B218" t="n">
+        <v>35</v>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>STP</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>Saudi Arabia</t>
+        </is>
+      </c>
+      <c r="B219" t="n">
+        <v>6979</v>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>SAU</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>Senegal</t>
+        </is>
+      </c>
+      <c r="B220" t="n">
+        <v>1110</v>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>SEN</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>Serbia</t>
+        </is>
+      </c>
+      <c r="B221" t="n">
+        <v>6409</v>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>SRB</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>Seychelles</t>
+        </is>
+      </c>
+      <c r="B222" t="n">
+        <v>28</v>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>SYC</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>Sierra Leone</t>
+        </is>
+      </c>
+      <c r="B223" t="n">
+        <v>79</v>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>SLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>Singapore</t>
+        </is>
+      </c>
+      <c r="B224" t="n">
+        <v>31</v>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>SGP</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>Slovakia</t>
+        </is>
+      </c>
+      <c r="B225" t="n">
+        <v>11766</v>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>SVK</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>Slovenia</t>
+        </is>
+      </c>
+      <c r="B226" t="n">
+        <v>4263</v>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>SVN</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>Solomon Islands</t>
+        </is>
+      </c>
+      <c r="B227" t="n">
+        <v>0</v>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>SLB</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>Somalia</t>
+        </is>
+      </c>
+      <c r="B228" t="n">
+        <v>713</v>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>SOM</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>South Africa</t>
+        </is>
+      </c>
+      <c r="B229" t="n">
+        <v>54417</v>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>ZAF</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>South Sudan</t>
+        </is>
+      </c>
+      <c r="B230" t="n">
+        <v>115</v>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>SSD</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>Spain</t>
+        </is>
+      </c>
+      <c r="B231" t="n">
+        <v>78216</v>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>ESP</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>Sri Lanka</t>
+        </is>
+      </c>
+      <c r="B232" t="n">
+        <v>696</v>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>LKA</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>Sudan</t>
+        </is>
+      </c>
+      <c r="B233" t="n">
+        <v>2349</v>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>SDN</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>Suriname</t>
+        </is>
+      </c>
+      <c r="B234" t="n">
+        <v>207</v>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>SUR</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>Sweden</t>
+        </is>
+      </c>
+      <c r="B235" t="n">
+        <v>14048</v>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>SWE</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="B236" t="n">
+        <v>10634</v>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>CHE</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>Syria</t>
+        </is>
+      </c>
+      <c r="B237" t="n">
+        <v>1603</v>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>SYR</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>Taiwan*</t>
+        </is>
+      </c>
+      <c r="B238" t="n">
+        <v>12</v>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>TWN</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>Tajikistan</t>
+        </is>
+      </c>
+      <c r="B239" t="n">
+        <v>90</v>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>TJK</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>Tanzania</t>
+        </is>
+      </c>
+      <c r="B240" t="n">
+        <v>21</v>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>TZA</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>Thailand</t>
+        </is>
+      </c>
+      <c r="B241" t="n">
+        <v>245</v>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>THA</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>Timor-Leste</t>
+        </is>
+      </c>
+      <c r="B242" t="n">
+        <v>4</v>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>TLS</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>Togo</t>
+        </is>
+      </c>
+      <c r="B243" t="n">
+        <v>123</v>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>TGO</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>Trinidad and Tobago</t>
+        </is>
+      </c>
+      <c r="B244" t="n">
+        <v>174</v>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>TTO</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>Tunisia</t>
+        </is>
+      </c>
+      <c r="B245" t="n">
+        <v>10868</v>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>TUN</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>Turkey</t>
+        </is>
+      </c>
+      <c r="B246" t="n">
+        <v>40844</v>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>TUR</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="B247" t="n">
+        <v>577045</v>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>Uganda</t>
+        </is>
+      </c>
+      <c r="B248" t="n">
+        <v>342</v>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>UGA</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>Ukraine</t>
+        </is>
+      </c>
+      <c r="B249" t="n">
+        <v>46447</v>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>UKR</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>United Arab Emirates</t>
+        </is>
+      </c>
+      <c r="B250" t="n">
+        <v>1593</v>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>ARE</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="B251" t="n">
+        <v>0</v>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>GBR</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="B252" t="n">
+        <v>28</v>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>GBR</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="B253" t="n">
+        <v>1</v>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>GBR</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="B254" t="n">
+        <v>2</v>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>GBR</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="B255" t="n">
+        <v>86</v>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>GBR</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="B256" t="n">
+        <v>0</v>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>GBR</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="B257" t="n">
+        <v>94</v>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>GBR</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="B258" t="n">
+        <v>29</v>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>GBR</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="B259" t="n">
+        <v>1</v>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>GBR</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="B260" t="n">
+        <v>0</v>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>GBR</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="B261" t="n">
+        <v>17</v>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>GBR</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="B262" t="n">
+        <v>127538</v>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>GBR</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>Uruguay</t>
+        </is>
+      </c>
+      <c r="B263" t="n">
+        <v>2724</v>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>URY</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>Uzbekistan</t>
+        </is>
+      </c>
+      <c r="B264" t="n">
+        <v>652</v>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>UZB</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>Vanuatu</t>
+        </is>
+      </c>
+      <c r="B265" t="n">
+        <v>1</v>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>VUT</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>Venezuela</t>
+        </is>
+      </c>
+      <c r="B266" t="n">
+        <v>2172</v>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>VEN</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>Vietnam</t>
+        </is>
+      </c>
+      <c r="B267" t="n">
+        <v>35</v>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>VNM</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>West Bank and Gaza</t>
+        </is>
+      </c>
+      <c r="B268" t="n">
+        <v>3272</v>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>WBG</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>Yemen</t>
+        </is>
+      </c>
+      <c r="B269" t="n">
+        <v>1233</v>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>YEM</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>Zambia</t>
+        </is>
+      </c>
+      <c r="B270" t="n">
+        <v>1253</v>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>ZMB</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
           <t>Zimbabwe</t>
         </is>
       </c>
-      <c r="B188" t="n">
-        <v>1556</v>
-      </c>
-      <c r="C188" t="inlineStr">
+      <c r="B271" t="n">
+        <v>1570</v>
+      </c>
+      <c r="C271" t="inlineStr">
         <is>
           <t>ZWE</t>
         </is>

--- a/deathmapdata.xlsx
+++ b/deathmapdata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C271"/>
+  <dimension ref="A1:C188"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -577,7 +577,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3</v>
+        <v>910</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -588,3913 +588,2668 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Australia</t>
+          <t>Austria</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>54</v>
+        <v>10245</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>AUS</t>
+          <t>AUT</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Australia</t>
+          <t>Azerbaijan</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>4561</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>AUS</t>
+          <t>AZE</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Australia</t>
+          <t>Bahamas</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>7</v>
+        <v>209</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>AUS</t>
+          <t>BHM</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Australia</t>
+          <t>Bahrain</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>4</v>
+        <v>651</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>AUS</t>
+          <t>BHR</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Australia</t>
+          <t>Bangladesh</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>13</v>
+        <v>11579</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>AUS</t>
+          <t>BGD</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Australia</t>
+          <t>Barbados</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>820</v>
+        <v>44</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>AUS</t>
+          <t>BRB</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Australia</t>
+          <t>Belarus</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>9</v>
+        <v>2562</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>AUS</t>
+          <t>BLR</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Austria</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>10245</v>
+        <v>24291</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>AUT</t>
+          <t>BEL</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Azerbaijan</t>
+          <t>Belize</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>4561</v>
+        <v>323</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>AZE</t>
+          <t>BLZ</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Bahamas</t>
+          <t>Benin</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>209</v>
+        <v>99</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>BHM</t>
+          <t>BEN</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Bahrain</t>
+          <t>Bhutan</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>651</v>
+        <v>1</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>BHR</t>
+          <t>BTN</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Bangladesh</t>
+          <t>Bolivia</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>11579</v>
+        <v>13009</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>BGD</t>
+          <t>BOL</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Barbados</t>
+          <t>Bosnia and Herzegovina</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>44</v>
+        <v>8551</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>BRB</t>
+          <t>BIH</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Belarus</t>
+          <t>Botswana</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>2562</v>
+        <v>712</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>BLR</t>
+          <t>BWA</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Belgium</t>
+          <t>Brazil</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>24291</v>
+        <v>407639</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>BEL</t>
+          <t>BRA</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Belize</t>
+          <t>Brunei</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>323</v>
+        <v>3</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>BLZ</t>
+          <t>BRN</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Benin</t>
+          <t>Bulgaria</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>99</v>
+        <v>16492</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>BEN</t>
+          <t>BGR</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Bhutan</t>
+          <t>Burkina Faso</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1</v>
+        <v>157</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>BTN</t>
+          <t>BFA</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Bolivia</t>
+          <t>Burma</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>13009</v>
+        <v>3209</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>BOL</t>
+          <t>MMR</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Bosnia and Herzegovina</t>
+          <t>Burundi</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>8551</v>
+        <v>6</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>BIH</t>
+          <t>BDI</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Botswana</t>
+          <t>Cabo Verde</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>712</v>
+        <v>223</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>BWA</t>
+          <t>CPV</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Brazil</t>
+          <t>Cambodia</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>407639</v>
+        <v>103</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>BRA</t>
+          <t>KHM</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Brunei</t>
+          <t>Cameroon</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3</v>
+        <v>1107</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>BRN</t>
+          <t>CMR</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Bulgaria</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>16492</v>
+        <v>24269</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>BGR</t>
+          <t>CAN</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Burkina Faso</t>
+          <t>Central African Republic</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>157</v>
+        <v>88</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>BFA</t>
+          <t>CAF</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Burma</t>
+          <t>Chad</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3209</v>
+        <v>170</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>MMR</t>
+          <t>TCD</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Burundi</t>
+          <t>Chile</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>6</v>
+        <v>26561</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>BDI</t>
+          <t>CHL</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Cabo Verde</t>
+          <t>China</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>223</v>
+        <v>4846</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>CPV</t>
+          <t>CHN</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Cambodia</t>
+          <t>Colombia</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>103</v>
+        <v>74477</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>KHM</t>
+          <t>COL</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Cameroon</t>
+          <t>Comoros</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1107</v>
+        <v>146</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>CMR</t>
+          <t>COM</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>Congo (Brazzaville)</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2086</v>
+        <v>144</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>CAN</t>
+          <t>COG</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>Congo (Kinshasa)</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>1581</v>
+        <v>768</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>CAN</t>
+          <t>COD</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>Costa Rica</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1</v>
+        <v>3231</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>CAN</t>
+          <t>CRI</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>Cote d'Ivoire</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>286</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>CAN</t>
+          <t>CIV</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>Croatia</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>978</v>
+        <v>7182</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>CAN</t>
+          <t>HRV</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>Cuba</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>37</v>
+        <v>664</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>CAN</t>
+          <t>CUB</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>Cyprus</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>6</v>
+        <v>313</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>CAN</t>
+          <t>CYP</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>Czechia</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0</v>
+        <v>29343</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>CAN</t>
+          <t>CZE</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>67</v>
+        <v>2491</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>CAN</t>
+          <t>DNK</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>Djibouti</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>4</v>
+        <v>146</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>CAN</t>
+          <t>DJI</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>Dominica</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>8070</v>
+        <v>0</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>CAN</t>
+          <t>DMA</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>Dominican Republic</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0</v>
+        <v>3493</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>CAN</t>
+          <t>DOM</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>Ecuador</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>10942</v>
+        <v>18740</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>CAN</t>
+          <t>ECU</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>Egypt</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0</v>
+        <v>13469</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>CAN</t>
+          <t>EGY</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>El Salvador</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>495</v>
+        <v>2132</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>CAN</t>
+          <t>SLV</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>Equatorial Guinea</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>2</v>
+        <v>112</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>CAN</t>
+          <t>GNQ</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Central African Republic</t>
+          <t>Eritrea</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>88</v>
+        <v>10</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>CAF</t>
+          <t>ERI</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Chad</t>
+          <t>Estonia</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>170</v>
+        <v>1168</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>TCD</t>
+          <t>EST</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Chile</t>
+          <t>Eswatini</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>26561</v>
+        <v>671</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>CHL</t>
+          <t>SWZ</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>Ethiopia</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>6</v>
+        <v>3726</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>CHN</t>
+          <t>ETH</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>Fiji</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>CHN</t>
+          <t>FJI</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>Finland</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>6</v>
+        <v>914</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>CHN</t>
+          <t>FIN</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>France</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>1</v>
+        <v>104980</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>CHN</t>
+          <t>FRA</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>Gabon</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>2</v>
+        <v>139</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>CHN</t>
+          <t>GAB</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>Gambia</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>8</v>
+        <v>175</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>CHN</t>
+          <t>GMB</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>Georgia</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>2</v>
+        <v>4151</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>CHN</t>
+          <t>GEO</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>2</v>
+        <v>83292</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>CHN</t>
+          <t>DEU</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>Ghana</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>6</v>
+        <v>779</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>CHN</t>
+          <t>GHA</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>Greece</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>7</v>
+        <v>10453</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>CHN</t>
+          <t>GRC</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>Grenada</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>CHN</t>
+          <t>GRD</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>Guatemala</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>22</v>
+        <v>7558</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>CHN</t>
+          <t>GTM</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>Guinea</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>210</v>
+        <v>145</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>CHN</t>
+          <t>GIN</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>Guinea-Bissau</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>4512</v>
+        <v>67</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>CHN</t>
+          <t>GNB</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>Guyana</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>4</v>
+        <v>299</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>CHN</t>
+          <t>GUY</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>Haiti</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>1</v>
+        <v>254</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>CHN</t>
+          <t>HTI</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>Honduras</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>0</v>
+        <v>5318</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>CHN</t>
+          <t>HND</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>Hungary</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>1</v>
+        <v>27802</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>CHN</t>
+          <t>HUN</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>Iceland</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>CHN</t>
+          <t>ISL</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>India</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>2</v>
+        <v>218959</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>CHN</t>
+          <t>IND</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>Indonesia</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>0</v>
+        <v>45796</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>CHN</t>
+          <t>IDN</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>Iran</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>0</v>
+        <v>72484</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>CHN</t>
+          <t>IRN</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>Iraq</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>0</v>
+        <v>15536</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>CHN</t>
+          <t>IRQ</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>Ireland</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>3</v>
+        <v>4906</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>CHN</t>
+          <t>IRL</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>Israel</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>7</v>
+        <v>6366</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>CHN</t>
+          <t>ISR</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>7</v>
+        <v>121177</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>CHN</t>
+          <t>ITA</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>Jamaica</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>0</v>
+        <v>784</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>CHN</t>
+          <t>JAM</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>Japan</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>3</v>
+        <v>10342</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>CHN</t>
+          <t>JPN</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>Jordan</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>3</v>
+        <v>8897</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>CHN</t>
+          <t>JOR</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>Kazakhstan</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>0</v>
+        <v>3349</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>CHN</t>
+          <t>KAZ</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>Kenya</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>0</v>
+        <v>2763</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>CHN</t>
+          <t>KEN</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>Korea, South</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>3</v>
+        <v>1834</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>CHN</t>
+          <t>KOR</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>Kosovo</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>2</v>
+        <v>2134</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>CHN</t>
+          <t>KSV</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>Kuwait</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>1</v>
+        <v>1578</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>CHN</t>
+          <t>KWT</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Colombia</t>
+          <t>Kyrgyzstan</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>74477</v>
+        <v>1619</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>COL</t>
+          <t>KGZ</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Comoros</t>
+          <t>Laos</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>146</v>
+        <v>0</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>COM</t>
+          <t>LAO</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Congo (Brazzaville)</t>
+          <t>Latvia</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>144</v>
+        <v>2144</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>COG</t>
+          <t>LVA</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Congo (Kinshasa)</t>
+          <t>Lebanon</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>768</v>
+        <v>7324</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>COD</t>
+          <t>LBN</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Costa Rica</t>
+          <t>Lesotho</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>3231</v>
+        <v>318</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>CRI</t>
+          <t>LSO</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Cote d'Ivoire</t>
+          <t>Liberia</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>286</v>
+        <v>85</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>CIV</t>
+          <t>LBR</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Croatia</t>
+          <t>Libya</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>7182</v>
+        <v>3039</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>HRV</t>
+          <t>LBY</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Cuba</t>
+          <t>Liechtenstein</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>664</v>
+        <v>57</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>CUB</t>
+          <t>LIE</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Cyprus</t>
+          <t>Lithuania</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>313</v>
+        <v>3950</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>CYP</t>
+          <t>LTU</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Czechia</t>
+          <t>Luxembourg</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>29343</v>
+        <v>796</v>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>CZE</t>
+          <t>LUX</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Madagascar</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>1</v>
+        <v>666</v>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>DNK</t>
+          <t>MDG</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Malawi</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>0</v>
+        <v>1148</v>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>DNK</t>
+          <t>MWI</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Malaysia</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>2490</v>
+        <v>1533</v>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>DNK</t>
+          <t>MYS</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Djibouti</t>
+          <t>Maldives</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>146</v>
+        <v>74</v>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>DJI</t>
+          <t>MDV</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Dominica</t>
+          <t>Mali</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>0</v>
+        <v>489</v>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>DMA</t>
+          <t>MLI</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Dominican Republic</t>
+          <t>Malta</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>3493</v>
+        <v>416</v>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>DOM</t>
+          <t>MLT</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Ecuador</t>
+          <t>Marshall Islands</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>18740</v>
+        <v>0</v>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>ECU</t>
+          <t>MHL</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Egypt</t>
+          <t>Mauritania</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>13469</v>
+        <v>455</v>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>EGY</t>
+          <t>MRT</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>El Salvador</t>
+          <t>Mauritius</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>2132</v>
+        <v>17</v>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>SLV</t>
+          <t>MUS</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Equatorial Guinea</t>
+          <t>Mexico</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>112</v>
+        <v>217233</v>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>GNQ</t>
+          <t>MEX</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Eritrea</t>
+          <t>Moldova</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>10</v>
+        <v>5838</v>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>ERI</t>
+          <t>MDA</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Estonia</t>
+          <t>Monaco</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>1168</v>
+        <v>32</v>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>EST</t>
+          <t>MCO</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Eswatini</t>
+          <t>Mongolia</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>671</v>
+        <v>119</v>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>SWZ</t>
+          <t>MNG</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Ethiopia</t>
+          <t>Montenegro</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>3726</v>
+        <v>1505</v>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>ETH</t>
+          <t>MNE</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Fiji</t>
+          <t>Morocco</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>2</v>
+        <v>9028</v>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>FJI</t>
+          <t>MAR</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Finland</t>
+          <t>Mozambique</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>914</v>
+        <v>815</v>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>FIN</t>
+          <t>MOZ</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Namibia</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>101</v>
+        <v>643</v>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>FRA</t>
+          <t>NAM</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Nepal</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>141</v>
+        <v>3325</v>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>FRA</t>
+          <t>NPL</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>228</v>
+        <v>17425</v>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>FRA</t>
+          <t>NLD</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>New Zealand</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>79</v>
+        <v>26</v>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>FRA</t>
+          <t>NZL</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Nicaragua</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>FRA</t>
+          <t>NIC</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Niger</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>0</v>
+        <v>191</v>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>FRA</t>
+          <t>NER</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Nigeria</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>148</v>
+        <v>2063</v>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>FRA</t>
+          <t>NGA</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Norway</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>1</v>
+        <v>756</v>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>FRA</t>
+          <t>NOR</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Oman</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>0</v>
+        <v>2043</v>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>FRA</t>
+          <t>OMN</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Pakistan</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>12</v>
+        <v>18149</v>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>FRA</t>
+          <t>PAK</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Panama</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>7</v>
+        <v>6238</v>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>FRA</t>
+          <t>PAN</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Papua New Guinea</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>104093</v>
+        <v>115</v>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>FRA</t>
+          <t>PNG</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Gabon</t>
+          <t>Paraguay</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>139</v>
+        <v>6572</v>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>GAB</t>
+          <t>PRY</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Gambia</t>
+          <t>Peru</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>175</v>
+        <v>62126</v>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>GMB</t>
+          <t>PER</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Georgia</t>
+          <t>Philippines</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>4151</v>
+        <v>17431</v>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>GEO</t>
+          <t>PHL</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Poland</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>83292</v>
+        <v>68068</v>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>DEU</t>
+          <t>POL</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Ghana</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>779</v>
+        <v>16977</v>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>GHA</t>
+          <t>PRT</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Greece</t>
+          <t>Qatar</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>10453</v>
+        <v>472</v>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>GRC</t>
+          <t>QAT</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Grenada</t>
+          <t>Romania</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>1</v>
+        <v>28282</v>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>GRD</t>
+          <t>ROU</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Guatemala</t>
+          <t>Russia</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>7558</v>
+        <v>109011</v>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>GTM</t>
+          <t>RUS</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Guinea</t>
+          <t>Rwanda</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>145</v>
+        <v>337</v>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>GIN</t>
+          <t>RWA</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Guinea-Bissau</t>
+          <t>Saint Kitts and Nevis</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>GNB</t>
+          <t>KNA</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Guyana</t>
+          <t>Saint Lucia</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>299</v>
+        <v>74</v>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>GUY</t>
+          <t>LCA</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Haiti</t>
+          <t>Saint Vincent and the Grenadines</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>254</v>
+        <v>11</v>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>HTI</t>
+          <t>VCT</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Honduras</t>
+          <t>Samoa</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>5318</v>
+        <v>0</v>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>HND</t>
+          <t>WSM</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Hungary</t>
+          <t>San Marino</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>27802</v>
+        <v>90</v>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>HUN</t>
+          <t>SMR</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Iceland</t>
+          <t>Sao Tome and Principe</t>
         </is>
       </c>
       <c r="B146" t="n">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>ISL</t>
+          <t>STP</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>India</t>
+          <t>Saudi Arabia</t>
         </is>
       </c>
       <c r="B147" t="n">
-        <v>218959</v>
+        <v>6979</v>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>SAU</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Indonesia</t>
+          <t>Senegal</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>45796</v>
+        <v>1110</v>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>IDN</t>
+          <t>SEN</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Iran</t>
+          <t>Serbia</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>72484</v>
+        <v>6409</v>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>IRN</t>
+          <t>SRB</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Iraq</t>
+          <t>Seychelles</t>
         </is>
       </c>
       <c r="B150" t="n">
-        <v>15536</v>
+        <v>28</v>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>IRQ</t>
+          <t>SYC</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Ireland</t>
+          <t>Sierra Leone</t>
         </is>
       </c>
       <c r="B151" t="n">
-        <v>4906</v>
+        <v>79</v>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>IRL</t>
+          <t>SLE</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Israel</t>
+          <t>Singapore</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>6366</v>
+        <v>31</v>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>ISR</t>
+          <t>SGP</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Slovakia</t>
         </is>
       </c>
       <c r="B153" t="n">
-        <v>121177</v>
+        <v>11766</v>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>ITA</t>
+          <t>SVK</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Jamaica</t>
+          <t>Slovenia</t>
         </is>
       </c>
       <c r="B154" t="n">
-        <v>784</v>
+        <v>4263</v>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>JAM</t>
+          <t>SVN</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>Solomon Islands</t>
         </is>
       </c>
       <c r="B155" t="n">
-        <v>10342</v>
+        <v>0</v>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>JPN</t>
+          <t>SLB</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Jordan</t>
+          <t>Somalia</t>
         </is>
       </c>
       <c r="B156" t="n">
-        <v>8897</v>
+        <v>713</v>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>JOR</t>
+          <t>SOM</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Kazakhstan</t>
+          <t>South Africa</t>
         </is>
       </c>
       <c r="B157" t="n">
-        <v>3349</v>
+        <v>54417</v>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>KAZ</t>
+          <t>ZAF</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Kenya</t>
+          <t>South Sudan</t>
         </is>
       </c>
       <c r="B158" t="n">
-        <v>2763</v>
+        <v>115</v>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>KEN</t>
+          <t>SSD</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Korea, South</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="B159" t="n">
-        <v>1834</v>
+        <v>78216</v>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>KOR</t>
+          <t>ESP</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Kosovo</t>
+          <t>Sri Lanka</t>
         </is>
       </c>
       <c r="B160" t="n">
-        <v>2134</v>
+        <v>696</v>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>KSV</t>
+          <t>LKA</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Kuwait</t>
+          <t>Sudan</t>
         </is>
       </c>
       <c r="B161" t="n">
-        <v>1578</v>
+        <v>2349</v>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>KWT</t>
+          <t>SDN</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Kyrgyzstan</t>
+          <t>Suriname</t>
         </is>
       </c>
       <c r="B162" t="n">
-        <v>1619</v>
+        <v>207</v>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>KGZ</t>
+          <t>SUR</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Laos</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="B163" t="n">
-        <v>0</v>
+        <v>14048</v>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>LAO</t>
+          <t>SWE</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Latvia</t>
+          <t>Switzerland</t>
         </is>
       </c>
       <c r="B164" t="n">
-        <v>2144</v>
+        <v>10634</v>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>LVA</t>
+          <t>CHE</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Lebanon</t>
+          <t>Syria</t>
         </is>
       </c>
       <c r="B165" t="n">
-        <v>7324</v>
+        <v>1603</v>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>LBN</t>
+          <t>SYR</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Lesotho</t>
+          <t>Taiwan*</t>
         </is>
       </c>
       <c r="B166" t="n">
-        <v>318</v>
+        <v>12</v>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>LSO</t>
+          <t>TWN</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Liberia</t>
+          <t>Tajikistan</t>
         </is>
       </c>
       <c r="B167" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>LBR</t>
+          <t>TJK</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Libya</t>
+          <t>Tanzania</t>
         </is>
       </c>
       <c r="B168" t="n">
-        <v>3039</v>
+        <v>21</v>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>LBY</t>
+          <t>TZA</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Liechtenstein</t>
+          <t>Thailand</t>
         </is>
       </c>
       <c r="B169" t="n">
-        <v>57</v>
+        <v>245</v>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>LIE</t>
+          <t>THA</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Lithuania</t>
+          <t>Timor-Leste</t>
         </is>
       </c>
       <c r="B170" t="n">
-        <v>3950</v>
+        <v>4</v>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>LTU</t>
+          <t>TLS</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Luxembourg</t>
+          <t>Togo</t>
         </is>
       </c>
       <c r="B171" t="n">
-        <v>796</v>
+        <v>123</v>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>LUX</t>
+          <t>TGO</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Madagascar</t>
+          <t>Trinidad and Tobago</t>
         </is>
       </c>
       <c r="B172" t="n">
-        <v>666</v>
+        <v>174</v>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>MDG</t>
+          <t>TTO</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Malawi</t>
+          <t>Tunisia</t>
         </is>
       </c>
       <c r="B173" t="n">
-        <v>1148</v>
+        <v>10868</v>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>MWI</t>
+          <t>TUN</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Malaysia</t>
+          <t>Turkey</t>
         </is>
       </c>
       <c r="B174" t="n">
-        <v>1533</v>
+        <v>40844</v>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>MYS</t>
+          <t>TUR</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Maldives</t>
+          <t>US</t>
         </is>
       </c>
       <c r="B175" t="n">
-        <v>74</v>
+        <v>577045</v>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>MDV</t>
+          <t>USA</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Mali</t>
+          <t>Uganda</t>
         </is>
       </c>
       <c r="B176" t="n">
-        <v>489</v>
+        <v>342</v>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>MLI</t>
+          <t>UGA</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Malta</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="B177" t="n">
-        <v>416</v>
+        <v>46447</v>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>MLT</t>
+          <t>UKR</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>Marshall Islands</t>
+          <t>United Arab Emirates</t>
         </is>
       </c>
       <c r="B178" t="n">
-        <v>0</v>
+        <v>1593</v>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>MHL</t>
+          <t>ARE</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Mauritania</t>
+          <t>United Kingdom</t>
         </is>
       </c>
       <c r="B179" t="n">
-        <v>455</v>
+        <v>127796</v>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>MRT</t>
+          <t>GBR</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Mauritius</t>
+          <t>Uruguay</t>
         </is>
       </c>
       <c r="B180" t="n">
-        <v>17</v>
+        <v>2724</v>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>MUS</t>
+          <t>URY</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Mexico</t>
+          <t>Uzbekistan</t>
         </is>
       </c>
       <c r="B181" t="n">
-        <v>217233</v>
+        <v>652</v>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>MEX</t>
+          <t>UZB</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>Moldova</t>
+          <t>Vanuatu</t>
         </is>
       </c>
       <c r="B182" t="n">
-        <v>5838</v>
+        <v>1</v>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>MDA</t>
+          <t>VUT</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>Monaco</t>
+          <t>Venezuela</t>
         </is>
       </c>
       <c r="B183" t="n">
-        <v>32</v>
+        <v>2172</v>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>MCO</t>
+          <t>VEN</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Mongolia</t>
+          <t>Vietnam</t>
         </is>
       </c>
       <c r="B184" t="n">
-        <v>119</v>
+        <v>35</v>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>MNG</t>
+          <t>VNM</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>Montenegro</t>
+          <t>West Bank and Gaza</t>
         </is>
       </c>
       <c r="B185" t="n">
-        <v>1505</v>
+        <v>3272</v>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>MNE</t>
+          <t>WBG</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>Morocco</t>
+          <t>Yemen</t>
         </is>
       </c>
       <c r="B186" t="n">
-        <v>9028</v>
+        <v>1233</v>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>MAR</t>
+          <t>YEM</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>Mozambique</t>
+          <t>Zambia</t>
         </is>
       </c>
       <c r="B187" t="n">
-        <v>815</v>
+        <v>1253</v>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>MOZ</t>
+          <t>ZMB</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>Namibia</t>
+          <t>Zimbabwe</t>
         </is>
       </c>
       <c r="B188" t="n">
-        <v>643</v>
+        <v>1570</v>
       </c>
       <c r="C188" t="inlineStr">
-        <is>
-          <t>NAM</t>
-        </is>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" t="inlineStr">
-        <is>
-          <t>Nepal</t>
-        </is>
-      </c>
-      <c r="B189" t="n">
-        <v>3325</v>
-      </c>
-      <c r="C189" t="inlineStr">
-        <is>
-          <t>NPL</t>
-        </is>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" t="inlineStr">
-        <is>
-          <t>Netherlands</t>
-        </is>
-      </c>
-      <c r="B190" t="n">
-        <v>99</v>
-      </c>
-      <c r="C190" t="inlineStr">
-        <is>
-          <t>NLD</t>
-        </is>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" t="inlineStr">
-        <is>
-          <t>Netherlands</t>
-        </is>
-      </c>
-      <c r="B191" t="n">
-        <v>16</v>
-      </c>
-      <c r="C191" t="inlineStr">
-        <is>
-          <t>NLD</t>
-        </is>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" t="inlineStr">
-        <is>
-          <t>Netherlands</t>
-        </is>
-      </c>
-      <c r="B192" t="n">
-        <v>111</v>
-      </c>
-      <c r="C192" t="inlineStr">
-        <is>
-          <t>NLD</t>
-        </is>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" t="inlineStr">
-        <is>
-          <t>Netherlands</t>
-        </is>
-      </c>
-      <c r="B193" t="n">
-        <v>27</v>
-      </c>
-      <c r="C193" t="inlineStr">
-        <is>
-          <t>NLD</t>
-        </is>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" t="inlineStr">
-        <is>
-          <t>Netherlands</t>
-        </is>
-      </c>
-      <c r="B194" t="n">
-        <v>17172</v>
-      </c>
-      <c r="C194" t="inlineStr">
-        <is>
-          <t>NLD</t>
-        </is>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" t="inlineStr">
-        <is>
-          <t>New Zealand</t>
-        </is>
-      </c>
-      <c r="B195" t="n">
-        <v>26</v>
-      </c>
-      <c r="C195" t="inlineStr">
-        <is>
-          <t>NZL</t>
-        </is>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" t="inlineStr">
-        <is>
-          <t>Nicaragua</t>
-        </is>
-      </c>
-      <c r="B196" t="n">
-        <v>182</v>
-      </c>
-      <c r="C196" t="inlineStr">
-        <is>
-          <t>NIC</t>
-        </is>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" t="inlineStr">
-        <is>
-          <t>Niger</t>
-        </is>
-      </c>
-      <c r="B197" t="n">
-        <v>191</v>
-      </c>
-      <c r="C197" t="inlineStr">
-        <is>
-          <t>NER</t>
-        </is>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" t="inlineStr">
-        <is>
-          <t>Nigeria</t>
-        </is>
-      </c>
-      <c r="B198" t="n">
-        <v>2063</v>
-      </c>
-      <c r="C198" t="inlineStr">
-        <is>
-          <t>NGA</t>
-        </is>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" t="inlineStr">
-        <is>
-          <t>Norway</t>
-        </is>
-      </c>
-      <c r="B199" t="n">
-        <v>756</v>
-      </c>
-      <c r="C199" t="inlineStr">
-        <is>
-          <t>NOR</t>
-        </is>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" t="inlineStr">
-        <is>
-          <t>Oman</t>
-        </is>
-      </c>
-      <c r="B200" t="n">
-        <v>2043</v>
-      </c>
-      <c r="C200" t="inlineStr">
-        <is>
-          <t>OMN</t>
-        </is>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" t="inlineStr">
-        <is>
-          <t>Pakistan</t>
-        </is>
-      </c>
-      <c r="B201" t="n">
-        <v>18149</v>
-      </c>
-      <c r="C201" t="inlineStr">
-        <is>
-          <t>PAK</t>
-        </is>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" t="inlineStr">
-        <is>
-          <t>Panama</t>
-        </is>
-      </c>
-      <c r="B202" t="n">
-        <v>6238</v>
-      </c>
-      <c r="C202" t="inlineStr">
-        <is>
-          <t>PAN</t>
-        </is>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" t="inlineStr">
-        <is>
-          <t>Papua New Guinea</t>
-        </is>
-      </c>
-      <c r="B203" t="n">
-        <v>115</v>
-      </c>
-      <c r="C203" t="inlineStr">
-        <is>
-          <t>PNG</t>
-        </is>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" t="inlineStr">
-        <is>
-          <t>Paraguay</t>
-        </is>
-      </c>
-      <c r="B204" t="n">
-        <v>6572</v>
-      </c>
-      <c r="C204" t="inlineStr">
-        <is>
-          <t>PRY</t>
-        </is>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" t="inlineStr">
-        <is>
-          <t>Peru</t>
-        </is>
-      </c>
-      <c r="B205" t="n">
-        <v>62126</v>
-      </c>
-      <c r="C205" t="inlineStr">
-        <is>
-          <t>PER</t>
-        </is>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" t="inlineStr">
-        <is>
-          <t>Philippines</t>
-        </is>
-      </c>
-      <c r="B206" t="n">
-        <v>17431</v>
-      </c>
-      <c r="C206" t="inlineStr">
-        <is>
-          <t>PHL</t>
-        </is>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" t="inlineStr">
-        <is>
-          <t>Poland</t>
-        </is>
-      </c>
-      <c r="B207" t="n">
-        <v>68068</v>
-      </c>
-      <c r="C207" t="inlineStr">
-        <is>
-          <t>POL</t>
-        </is>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" t="inlineStr">
-        <is>
-          <t>Portugal</t>
-        </is>
-      </c>
-      <c r="B208" t="n">
-        <v>16977</v>
-      </c>
-      <c r="C208" t="inlineStr">
-        <is>
-          <t>PRT</t>
-        </is>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" t="inlineStr">
-        <is>
-          <t>Qatar</t>
-        </is>
-      </c>
-      <c r="B209" t="n">
-        <v>472</v>
-      </c>
-      <c r="C209" t="inlineStr">
-        <is>
-          <t>QAT</t>
-        </is>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" t="inlineStr">
-        <is>
-          <t>Romania</t>
-        </is>
-      </c>
-      <c r="B210" t="n">
-        <v>28282</v>
-      </c>
-      <c r="C210" t="inlineStr">
-        <is>
-          <t>ROU</t>
-        </is>
-      </c>
-    </row>
-    <row r="211">
-      <c r="A211" t="inlineStr">
-        <is>
-          <t>Russia</t>
-        </is>
-      </c>
-      <c r="B211" t="n">
-        <v>109011</v>
-      </c>
-      <c r="C211" t="inlineStr">
-        <is>
-          <t>RUS</t>
-        </is>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" t="inlineStr">
-        <is>
-          <t>Rwanda</t>
-        </is>
-      </c>
-      <c r="B212" t="n">
-        <v>337</v>
-      </c>
-      <c r="C212" t="inlineStr">
-        <is>
-          <t>RWA</t>
-        </is>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213" t="inlineStr">
-        <is>
-          <t>Saint Kitts and Nevis</t>
-        </is>
-      </c>
-      <c r="B213" t="n">
-        <v>0</v>
-      </c>
-      <c r="C213" t="inlineStr">
-        <is>
-          <t>KNA</t>
-        </is>
-      </c>
-    </row>
-    <row r="214">
-      <c r="A214" t="inlineStr">
-        <is>
-          <t>Saint Lucia</t>
-        </is>
-      </c>
-      <c r="B214" t="n">
-        <v>74</v>
-      </c>
-      <c r="C214" t="inlineStr">
-        <is>
-          <t>LCA</t>
-        </is>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" t="inlineStr">
-        <is>
-          <t>Saint Vincent and the Grenadines</t>
-        </is>
-      </c>
-      <c r="B215" t="n">
-        <v>11</v>
-      </c>
-      <c r="C215" t="inlineStr">
-        <is>
-          <t>VCT</t>
-        </is>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" t="inlineStr">
-        <is>
-          <t>Samoa</t>
-        </is>
-      </c>
-      <c r="B216" t="n">
-        <v>0</v>
-      </c>
-      <c r="C216" t="inlineStr">
-        <is>
-          <t>WSM</t>
-        </is>
-      </c>
-    </row>
-    <row r="217">
-      <c r="A217" t="inlineStr">
-        <is>
-          <t>San Marino</t>
-        </is>
-      </c>
-      <c r="B217" t="n">
-        <v>90</v>
-      </c>
-      <c r="C217" t="inlineStr">
-        <is>
-          <t>SMR</t>
-        </is>
-      </c>
-    </row>
-    <row r="218">
-      <c r="A218" t="inlineStr">
-        <is>
-          <t>Sao Tome and Principe</t>
-        </is>
-      </c>
-      <c r="B218" t="n">
-        <v>35</v>
-      </c>
-      <c r="C218" t="inlineStr">
-        <is>
-          <t>STP</t>
-        </is>
-      </c>
-    </row>
-    <row r="219">
-      <c r="A219" t="inlineStr">
-        <is>
-          <t>Saudi Arabia</t>
-        </is>
-      </c>
-      <c r="B219" t="n">
-        <v>6979</v>
-      </c>
-      <c r="C219" t="inlineStr">
-        <is>
-          <t>SAU</t>
-        </is>
-      </c>
-    </row>
-    <row r="220">
-      <c r="A220" t="inlineStr">
-        <is>
-          <t>Senegal</t>
-        </is>
-      </c>
-      <c r="B220" t="n">
-        <v>1110</v>
-      </c>
-      <c r="C220" t="inlineStr">
-        <is>
-          <t>SEN</t>
-        </is>
-      </c>
-    </row>
-    <row r="221">
-      <c r="A221" t="inlineStr">
-        <is>
-          <t>Serbia</t>
-        </is>
-      </c>
-      <c r="B221" t="n">
-        <v>6409</v>
-      </c>
-      <c r="C221" t="inlineStr">
-        <is>
-          <t>SRB</t>
-        </is>
-      </c>
-    </row>
-    <row r="222">
-      <c r="A222" t="inlineStr">
-        <is>
-          <t>Seychelles</t>
-        </is>
-      </c>
-      <c r="B222" t="n">
-        <v>28</v>
-      </c>
-      <c r="C222" t="inlineStr">
-        <is>
-          <t>SYC</t>
-        </is>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223" t="inlineStr">
-        <is>
-          <t>Sierra Leone</t>
-        </is>
-      </c>
-      <c r="B223" t="n">
-        <v>79</v>
-      </c>
-      <c r="C223" t="inlineStr">
-        <is>
-          <t>SLE</t>
-        </is>
-      </c>
-    </row>
-    <row r="224">
-      <c r="A224" t="inlineStr">
-        <is>
-          <t>Singapore</t>
-        </is>
-      </c>
-      <c r="B224" t="n">
-        <v>31</v>
-      </c>
-      <c r="C224" t="inlineStr">
-        <is>
-          <t>SGP</t>
-        </is>
-      </c>
-    </row>
-    <row r="225">
-      <c r="A225" t="inlineStr">
-        <is>
-          <t>Slovakia</t>
-        </is>
-      </c>
-      <c r="B225" t="n">
-        <v>11766</v>
-      </c>
-      <c r="C225" t="inlineStr">
-        <is>
-          <t>SVK</t>
-        </is>
-      </c>
-    </row>
-    <row r="226">
-      <c r="A226" t="inlineStr">
-        <is>
-          <t>Slovenia</t>
-        </is>
-      </c>
-      <c r="B226" t="n">
-        <v>4263</v>
-      </c>
-      <c r="C226" t="inlineStr">
-        <is>
-          <t>SVN</t>
-        </is>
-      </c>
-    </row>
-    <row r="227">
-      <c r="A227" t="inlineStr">
-        <is>
-          <t>Solomon Islands</t>
-        </is>
-      </c>
-      <c r="B227" t="n">
-        <v>0</v>
-      </c>
-      <c r="C227" t="inlineStr">
-        <is>
-          <t>SLB</t>
-        </is>
-      </c>
-    </row>
-    <row r="228">
-      <c r="A228" t="inlineStr">
-        <is>
-          <t>Somalia</t>
-        </is>
-      </c>
-      <c r="B228" t="n">
-        <v>713</v>
-      </c>
-      <c r="C228" t="inlineStr">
-        <is>
-          <t>SOM</t>
-        </is>
-      </c>
-    </row>
-    <row r="229">
-      <c r="A229" t="inlineStr">
-        <is>
-          <t>South Africa</t>
-        </is>
-      </c>
-      <c r="B229" t="n">
-        <v>54417</v>
-      </c>
-      <c r="C229" t="inlineStr">
-        <is>
-          <t>ZAF</t>
-        </is>
-      </c>
-    </row>
-    <row r="230">
-      <c r="A230" t="inlineStr">
-        <is>
-          <t>South Sudan</t>
-        </is>
-      </c>
-      <c r="B230" t="n">
-        <v>115</v>
-      </c>
-      <c r="C230" t="inlineStr">
-        <is>
-          <t>SSD</t>
-        </is>
-      </c>
-    </row>
-    <row r="231">
-      <c r="A231" t="inlineStr">
-        <is>
-          <t>Spain</t>
-        </is>
-      </c>
-      <c r="B231" t="n">
-        <v>78216</v>
-      </c>
-      <c r="C231" t="inlineStr">
-        <is>
-          <t>ESP</t>
-        </is>
-      </c>
-    </row>
-    <row r="232">
-      <c r="A232" t="inlineStr">
-        <is>
-          <t>Sri Lanka</t>
-        </is>
-      </c>
-      <c r="B232" t="n">
-        <v>696</v>
-      </c>
-      <c r="C232" t="inlineStr">
-        <is>
-          <t>LKA</t>
-        </is>
-      </c>
-    </row>
-    <row r="233">
-      <c r="A233" t="inlineStr">
-        <is>
-          <t>Sudan</t>
-        </is>
-      </c>
-      <c r="B233" t="n">
-        <v>2349</v>
-      </c>
-      <c r="C233" t="inlineStr">
-        <is>
-          <t>SDN</t>
-        </is>
-      </c>
-    </row>
-    <row r="234">
-      <c r="A234" t="inlineStr">
-        <is>
-          <t>Suriname</t>
-        </is>
-      </c>
-      <c r="B234" t="n">
-        <v>207</v>
-      </c>
-      <c r="C234" t="inlineStr">
-        <is>
-          <t>SUR</t>
-        </is>
-      </c>
-    </row>
-    <row r="235">
-      <c r="A235" t="inlineStr">
-        <is>
-          <t>Sweden</t>
-        </is>
-      </c>
-      <c r="B235" t="n">
-        <v>14048</v>
-      </c>
-      <c r="C235" t="inlineStr">
-        <is>
-          <t>SWE</t>
-        </is>
-      </c>
-    </row>
-    <row r="236">
-      <c r="A236" t="inlineStr">
-        <is>
-          <t>Switzerland</t>
-        </is>
-      </c>
-      <c r="B236" t="n">
-        <v>10634</v>
-      </c>
-      <c r="C236" t="inlineStr">
-        <is>
-          <t>CHE</t>
-        </is>
-      </c>
-    </row>
-    <row r="237">
-      <c r="A237" t="inlineStr">
-        <is>
-          <t>Syria</t>
-        </is>
-      </c>
-      <c r="B237" t="n">
-        <v>1603</v>
-      </c>
-      <c r="C237" t="inlineStr">
-        <is>
-          <t>SYR</t>
-        </is>
-      </c>
-    </row>
-    <row r="238">
-      <c r="A238" t="inlineStr">
-        <is>
-          <t>Taiwan*</t>
-        </is>
-      </c>
-      <c r="B238" t="n">
-        <v>12</v>
-      </c>
-      <c r="C238" t="inlineStr">
-        <is>
-          <t>TWN</t>
-        </is>
-      </c>
-    </row>
-    <row r="239">
-      <c r="A239" t="inlineStr">
-        <is>
-          <t>Tajikistan</t>
-        </is>
-      </c>
-      <c r="B239" t="n">
-        <v>90</v>
-      </c>
-      <c r="C239" t="inlineStr">
-        <is>
-          <t>TJK</t>
-        </is>
-      </c>
-    </row>
-    <row r="240">
-      <c r="A240" t="inlineStr">
-        <is>
-          <t>Tanzania</t>
-        </is>
-      </c>
-      <c r="B240" t="n">
-        <v>21</v>
-      </c>
-      <c r="C240" t="inlineStr">
-        <is>
-          <t>TZA</t>
-        </is>
-      </c>
-    </row>
-    <row r="241">
-      <c r="A241" t="inlineStr">
-        <is>
-          <t>Thailand</t>
-        </is>
-      </c>
-      <c r="B241" t="n">
-        <v>245</v>
-      </c>
-      <c r="C241" t="inlineStr">
-        <is>
-          <t>THA</t>
-        </is>
-      </c>
-    </row>
-    <row r="242">
-      <c r="A242" t="inlineStr">
-        <is>
-          <t>Timor-Leste</t>
-        </is>
-      </c>
-      <c r="B242" t="n">
-        <v>4</v>
-      </c>
-      <c r="C242" t="inlineStr">
-        <is>
-          <t>TLS</t>
-        </is>
-      </c>
-    </row>
-    <row r="243">
-      <c r="A243" t="inlineStr">
-        <is>
-          <t>Togo</t>
-        </is>
-      </c>
-      <c r="B243" t="n">
-        <v>123</v>
-      </c>
-      <c r="C243" t="inlineStr">
-        <is>
-          <t>TGO</t>
-        </is>
-      </c>
-    </row>
-    <row r="244">
-      <c r="A244" t="inlineStr">
-        <is>
-          <t>Trinidad and Tobago</t>
-        </is>
-      </c>
-      <c r="B244" t="n">
-        <v>174</v>
-      </c>
-      <c r="C244" t="inlineStr">
-        <is>
-          <t>TTO</t>
-        </is>
-      </c>
-    </row>
-    <row r="245">
-      <c r="A245" t="inlineStr">
-        <is>
-          <t>Tunisia</t>
-        </is>
-      </c>
-      <c r="B245" t="n">
-        <v>10868</v>
-      </c>
-      <c r="C245" t="inlineStr">
-        <is>
-          <t>TUN</t>
-        </is>
-      </c>
-    </row>
-    <row r="246">
-      <c r="A246" t="inlineStr">
-        <is>
-          <t>Turkey</t>
-        </is>
-      </c>
-      <c r="B246" t="n">
-        <v>40844</v>
-      </c>
-      <c r="C246" t="inlineStr">
-        <is>
-          <t>TUR</t>
-        </is>
-      </c>
-    </row>
-    <row r="247">
-      <c r="A247" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="B247" t="n">
-        <v>577045</v>
-      </c>
-      <c r="C247" t="inlineStr">
-        <is>
-          <t>USA</t>
-        </is>
-      </c>
-    </row>
-    <row r="248">
-      <c r="A248" t="inlineStr">
-        <is>
-          <t>Uganda</t>
-        </is>
-      </c>
-      <c r="B248" t="n">
-        <v>342</v>
-      </c>
-      <c r="C248" t="inlineStr">
-        <is>
-          <t>UGA</t>
-        </is>
-      </c>
-    </row>
-    <row r="249">
-      <c r="A249" t="inlineStr">
-        <is>
-          <t>Ukraine</t>
-        </is>
-      </c>
-      <c r="B249" t="n">
-        <v>46447</v>
-      </c>
-      <c r="C249" t="inlineStr">
-        <is>
-          <t>UKR</t>
-        </is>
-      </c>
-    </row>
-    <row r="250">
-      <c r="A250" t="inlineStr">
-        <is>
-          <t>United Arab Emirates</t>
-        </is>
-      </c>
-      <c r="B250" t="n">
-        <v>1593</v>
-      </c>
-      <c r="C250" t="inlineStr">
-        <is>
-          <t>ARE</t>
-        </is>
-      </c>
-    </row>
-    <row r="251">
-      <c r="A251" t="inlineStr">
-        <is>
-          <t>United Kingdom</t>
-        </is>
-      </c>
-      <c r="B251" t="n">
-        <v>0</v>
-      </c>
-      <c r="C251" t="inlineStr">
-        <is>
-          <t>GBR</t>
-        </is>
-      </c>
-    </row>
-    <row r="252">
-      <c r="A252" t="inlineStr">
-        <is>
-          <t>United Kingdom</t>
-        </is>
-      </c>
-      <c r="B252" t="n">
-        <v>28</v>
-      </c>
-      <c r="C252" t="inlineStr">
-        <is>
-          <t>GBR</t>
-        </is>
-      </c>
-    </row>
-    <row r="253">
-      <c r="A253" t="inlineStr">
-        <is>
-          <t>United Kingdom</t>
-        </is>
-      </c>
-      <c r="B253" t="n">
-        <v>1</v>
-      </c>
-      <c r="C253" t="inlineStr">
-        <is>
-          <t>GBR</t>
-        </is>
-      </c>
-    </row>
-    <row r="254">
-      <c r="A254" t="inlineStr">
-        <is>
-          <t>United Kingdom</t>
-        </is>
-      </c>
-      <c r="B254" t="n">
-        <v>2</v>
-      </c>
-      <c r="C254" t="inlineStr">
-        <is>
-          <t>GBR</t>
-        </is>
-      </c>
-    </row>
-    <row r="255">
-      <c r="A255" t="inlineStr">
-        <is>
-          <t>United Kingdom</t>
-        </is>
-      </c>
-      <c r="B255" t="n">
-        <v>86</v>
-      </c>
-      <c r="C255" t="inlineStr">
-        <is>
-          <t>GBR</t>
-        </is>
-      </c>
-    </row>
-    <row r="256">
-      <c r="A256" t="inlineStr">
-        <is>
-          <t>United Kingdom</t>
-        </is>
-      </c>
-      <c r="B256" t="n">
-        <v>0</v>
-      </c>
-      <c r="C256" t="inlineStr">
-        <is>
-          <t>GBR</t>
-        </is>
-      </c>
-    </row>
-    <row r="257">
-      <c r="A257" t="inlineStr">
-        <is>
-          <t>United Kingdom</t>
-        </is>
-      </c>
-      <c r="B257" t="n">
-        <v>94</v>
-      </c>
-      <c r="C257" t="inlineStr">
-        <is>
-          <t>GBR</t>
-        </is>
-      </c>
-    </row>
-    <row r="258">
-      <c r="A258" t="inlineStr">
-        <is>
-          <t>United Kingdom</t>
-        </is>
-      </c>
-      <c r="B258" t="n">
-        <v>29</v>
-      </c>
-      <c r="C258" t="inlineStr">
-        <is>
-          <t>GBR</t>
-        </is>
-      </c>
-    </row>
-    <row r="259">
-      <c r="A259" t="inlineStr">
-        <is>
-          <t>United Kingdom</t>
-        </is>
-      </c>
-      <c r="B259" t="n">
-        <v>1</v>
-      </c>
-      <c r="C259" t="inlineStr">
-        <is>
-          <t>GBR</t>
-        </is>
-      </c>
-    </row>
-    <row r="260">
-      <c r="A260" t="inlineStr">
-        <is>
-          <t>United Kingdom</t>
-        </is>
-      </c>
-      <c r="B260" t="n">
-        <v>0</v>
-      </c>
-      <c r="C260" t="inlineStr">
-        <is>
-          <t>GBR</t>
-        </is>
-      </c>
-    </row>
-    <row r="261">
-      <c r="A261" t="inlineStr">
-        <is>
-          <t>United Kingdom</t>
-        </is>
-      </c>
-      <c r="B261" t="n">
-        <v>17</v>
-      </c>
-      <c r="C261" t="inlineStr">
-        <is>
-          <t>GBR</t>
-        </is>
-      </c>
-    </row>
-    <row r="262">
-      <c r="A262" t="inlineStr">
-        <is>
-          <t>United Kingdom</t>
-        </is>
-      </c>
-      <c r="B262" t="n">
-        <v>127538</v>
-      </c>
-      <c r="C262" t="inlineStr">
-        <is>
-          <t>GBR</t>
-        </is>
-      </c>
-    </row>
-    <row r="263">
-      <c r="A263" t="inlineStr">
-        <is>
-          <t>Uruguay</t>
-        </is>
-      </c>
-      <c r="B263" t="n">
-        <v>2724</v>
-      </c>
-      <c r="C263" t="inlineStr">
-        <is>
-          <t>URY</t>
-        </is>
-      </c>
-    </row>
-    <row r="264">
-      <c r="A264" t="inlineStr">
-        <is>
-          <t>Uzbekistan</t>
-        </is>
-      </c>
-      <c r="B264" t="n">
-        <v>652</v>
-      </c>
-      <c r="C264" t="inlineStr">
-        <is>
-          <t>UZB</t>
-        </is>
-      </c>
-    </row>
-    <row r="265">
-      <c r="A265" t="inlineStr">
-        <is>
-          <t>Vanuatu</t>
-        </is>
-      </c>
-      <c r="B265" t="n">
-        <v>1</v>
-      </c>
-      <c r="C265" t="inlineStr">
-        <is>
-          <t>VUT</t>
-        </is>
-      </c>
-    </row>
-    <row r="266">
-      <c r="A266" t="inlineStr">
-        <is>
-          <t>Venezuela</t>
-        </is>
-      </c>
-      <c r="B266" t="n">
-        <v>2172</v>
-      </c>
-      <c r="C266" t="inlineStr">
-        <is>
-          <t>VEN</t>
-        </is>
-      </c>
-    </row>
-    <row r="267">
-      <c r="A267" t="inlineStr">
-        <is>
-          <t>Vietnam</t>
-        </is>
-      </c>
-      <c r="B267" t="n">
-        <v>35</v>
-      </c>
-      <c r="C267" t="inlineStr">
-        <is>
-          <t>VNM</t>
-        </is>
-      </c>
-    </row>
-    <row r="268">
-      <c r="A268" t="inlineStr">
-        <is>
-          <t>West Bank and Gaza</t>
-        </is>
-      </c>
-      <c r="B268" t="n">
-        <v>3272</v>
-      </c>
-      <c r="C268" t="inlineStr">
-        <is>
-          <t>WBG</t>
-        </is>
-      </c>
-    </row>
-    <row r="269">
-      <c r="A269" t="inlineStr">
-        <is>
-          <t>Yemen</t>
-        </is>
-      </c>
-      <c r="B269" t="n">
-        <v>1233</v>
-      </c>
-      <c r="C269" t="inlineStr">
-        <is>
-          <t>YEM</t>
-        </is>
-      </c>
-    </row>
-    <row r="270">
-      <c r="A270" t="inlineStr">
-        <is>
-          <t>Zambia</t>
-        </is>
-      </c>
-      <c r="B270" t="n">
-        <v>1253</v>
-      </c>
-      <c r="C270" t="inlineStr">
-        <is>
-          <t>ZMB</t>
-        </is>
-      </c>
-    </row>
-    <row r="271">
-      <c r="A271" t="inlineStr">
-        <is>
-          <t>Zimbabwe</t>
-        </is>
-      </c>
-      <c r="B271" t="n">
-        <v>1570</v>
-      </c>
-      <c r="C271" t="inlineStr">
         <is>
           <t>ZWE</t>
         </is>

--- a/deathmapdata.xlsx
+++ b/deathmapdata.xlsx
@@ -457,7 +457,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2637</v>
+        <v>2642</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2397</v>
+        <v>2399</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3270</v>
+        <v>3280</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -517,7 +517,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -547,7 +547,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>64252</v>
+        <v>64792</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -562,7 +562,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>4139</v>
+        <v>4149</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -592,7 +592,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>10245</v>
+        <v>10260</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -607,7 +607,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>4561</v>
+        <v>4580</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -622,7 +622,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -637,7 +637,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>651</v>
+        <v>657</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -652,7 +652,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>11579</v>
+        <v>11644</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -682,7 +682,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2562</v>
+        <v>2572</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -697,7 +697,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>24291</v>
+        <v>24322</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -757,7 +757,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>13009</v>
+        <v>13035</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -787,7 +787,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>712</v>
+        <v>724</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -802,7 +802,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>407639</v>
+        <v>408622</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -832,7 +832,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>16492</v>
+        <v>16548</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -892,7 +892,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -907,7 +907,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -937,7 +937,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24269</v>
+        <v>24334</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -982,7 +982,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>26561</v>
+        <v>26659</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -1012,7 +1012,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>74477</v>
+        <v>75164</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -1042,7 +1042,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -1072,7 +1072,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3231</v>
+        <v>3290</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -1087,7 +1087,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -1102,7 +1102,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>7182</v>
+        <v>7218</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -1117,7 +1117,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>664</v>
+        <v>675</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>313</v>
+        <v>321</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -1147,7 +1147,7 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>29343</v>
+        <v>29365</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>3493</v>
+        <v>3499</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -1222,7 +1222,7 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>18740</v>
+        <v>18765</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -1237,7 +1237,7 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>13469</v>
+        <v>13531</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -1252,7 +1252,7 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>2132</v>
+        <v>2134</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -1282,7 +1282,7 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -1297,7 +1297,7 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>1168</v>
+        <v>1172</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -1327,7 +1327,7 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>3726</v>
+        <v>3757</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -1357,7 +1357,7 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -1372,7 +1372,7 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>104980</v>
+        <v>105291</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -1417,7 +1417,7 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>4151</v>
+        <v>4163</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -1432,7 +1432,7 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>83292</v>
+        <v>83605</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
@@ -1462,7 +1462,7 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>10453</v>
+        <v>10587</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -1492,7 +1492,7 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>7558</v>
+        <v>7578</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
@@ -1507,7 +1507,7 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -1537,7 +1537,7 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -1567,7 +1567,7 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>5318</v>
+        <v>5367</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -1582,7 +1582,7 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>27802</v>
+        <v>27908</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -1612,7 +1612,7 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>218959</v>
+        <v>222408</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -1627,7 +1627,7 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>45796</v>
+        <v>45949</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
@@ -1642,7 +1642,7 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>72484</v>
+        <v>72875</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
@@ -1657,7 +1657,7 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>15536</v>
+        <v>15566</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>6366</v>
+        <v>6367</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
@@ -1702,7 +1702,7 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>121177</v>
+        <v>121433</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
@@ -1717,7 +1717,7 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>784</v>
+        <v>790</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
@@ -1732,7 +1732,7 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>10342</v>
+        <v>10391</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>8897</v>
+        <v>8925</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>3349</v>
+        <v>3352</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
@@ -1777,7 +1777,7 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>2763</v>
+        <v>2781</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
@@ -1792,7 +1792,7 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>1834</v>
+        <v>1840</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
@@ -1822,7 +1822,7 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>1578</v>
+        <v>1590</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
@@ -1837,7 +1837,7 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>1619</v>
+        <v>1622</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
@@ -1867,7 +1867,7 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>2144</v>
+        <v>2154</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
@@ -1882,7 +1882,7 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>7324</v>
+        <v>7345</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>3039</v>
+        <v>3047</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
@@ -1957,7 +1957,7 @@
         </is>
       </c>
       <c r="B102" t="n">
-        <v>3950</v>
+        <v>3956</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
@@ -1972,7 +1972,7 @@
         </is>
       </c>
       <c r="B103" t="n">
-        <v>796</v>
+        <v>800</v>
       </c>
       <c r="C103" t="inlineStr">
         <is>
@@ -1987,7 +1987,7 @@
         </is>
       </c>
       <c r="B104" t="n">
-        <v>666</v>
+        <v>677</v>
       </c>
       <c r="C104" t="inlineStr">
         <is>
@@ -2017,7 +2017,7 @@
         </is>
       </c>
       <c r="B106" t="n">
-        <v>1533</v>
+        <v>1551</v>
       </c>
       <c r="C106" t="inlineStr">
         <is>
@@ -2047,7 +2047,7 @@
         </is>
       </c>
       <c r="B108" t="n">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="C108" t="inlineStr">
         <is>
@@ -2122,7 +2122,7 @@
         </is>
       </c>
       <c r="B113" t="n">
-        <v>217233</v>
+        <v>217345</v>
       </c>
       <c r="C113" t="inlineStr">
         <is>
@@ -2137,7 +2137,7 @@
         </is>
       </c>
       <c r="B114" t="n">
-        <v>5838</v>
+        <v>5850</v>
       </c>
       <c r="C114" t="inlineStr">
         <is>
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="B116" t="n">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="C116" t="inlineStr">
         <is>
@@ -2182,7 +2182,7 @@
         </is>
       </c>
       <c r="B117" t="n">
-        <v>1505</v>
+        <v>1510</v>
       </c>
       <c r="C117" t="inlineStr">
         <is>
@@ -2197,7 +2197,7 @@
         </is>
       </c>
       <c r="B118" t="n">
-        <v>9028</v>
+        <v>9032</v>
       </c>
       <c r="C118" t="inlineStr">
         <is>
@@ -2242,7 +2242,7 @@
         </is>
       </c>
       <c r="B121" t="n">
-        <v>3325</v>
+        <v>3362</v>
       </c>
       <c r="C121" t="inlineStr">
         <is>
@@ -2257,7 +2257,7 @@
         </is>
       </c>
       <c r="B122" t="n">
-        <v>17425</v>
+        <v>17443</v>
       </c>
       <c r="C122" t="inlineStr">
         <is>
@@ -2332,7 +2332,7 @@
         </is>
       </c>
       <c r="B127" t="n">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="C127" t="inlineStr">
         <is>
@@ -2347,7 +2347,7 @@
         </is>
       </c>
       <c r="B128" t="n">
-        <v>2043</v>
+        <v>2053</v>
       </c>
       <c r="C128" t="inlineStr">
         <is>
@@ -2362,7 +2362,7 @@
         </is>
       </c>
       <c r="B129" t="n">
-        <v>18149</v>
+        <v>18310</v>
       </c>
       <c r="C129" t="inlineStr">
         <is>
@@ -2377,7 +2377,7 @@
         </is>
       </c>
       <c r="B130" t="n">
-        <v>6238</v>
+        <v>6244</v>
       </c>
       <c r="C130" t="inlineStr">
         <is>
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="B132" t="n">
-        <v>6572</v>
+        <v>6653</v>
       </c>
       <c r="C132" t="inlineStr">
         <is>
@@ -2422,7 +2422,7 @@
         </is>
       </c>
       <c r="B133" t="n">
-        <v>62126</v>
+        <v>62375</v>
       </c>
       <c r="C133" t="inlineStr">
         <is>
@@ -2437,7 +2437,7 @@
         </is>
       </c>
       <c r="B134" t="n">
-        <v>17431</v>
+        <v>17525</v>
       </c>
       <c r="C134" t="inlineStr">
         <is>
@@ -2452,7 +2452,7 @@
         </is>
       </c>
       <c r="B135" t="n">
-        <v>68068</v>
+        <v>68105</v>
       </c>
       <c r="C135" t="inlineStr">
         <is>
@@ -2482,7 +2482,7 @@
         </is>
       </c>
       <c r="B137" t="n">
-        <v>472</v>
+        <v>480</v>
       </c>
       <c r="C137" t="inlineStr">
         <is>
@@ -2497,7 +2497,7 @@
         </is>
       </c>
       <c r="B138" t="n">
-        <v>28282</v>
+        <v>28380</v>
       </c>
       <c r="C138" t="inlineStr">
         <is>
@@ -2512,7 +2512,7 @@
         </is>
       </c>
       <c r="B139" t="n">
-        <v>109011</v>
+        <v>109341</v>
       </c>
       <c r="C139" t="inlineStr">
         <is>
@@ -2632,7 +2632,7 @@
         </is>
       </c>
       <c r="B147" t="n">
-        <v>6979</v>
+        <v>6992</v>
       </c>
       <c r="C147" t="inlineStr">
         <is>
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="B148" t="n">
-        <v>1110</v>
+        <v>1111</v>
       </c>
       <c r="C148" t="inlineStr">
         <is>
@@ -2662,7 +2662,7 @@
         </is>
       </c>
       <c r="B149" t="n">
-        <v>6409</v>
+        <v>6432</v>
       </c>
       <c r="C149" t="inlineStr">
         <is>
@@ -2722,7 +2722,7 @@
         </is>
       </c>
       <c r="B153" t="n">
-        <v>11766</v>
+        <v>11807</v>
       </c>
       <c r="C153" t="inlineStr">
         <is>
@@ -2737,7 +2737,7 @@
         </is>
       </c>
       <c r="B154" t="n">
-        <v>4263</v>
+        <v>4269</v>
       </c>
       <c r="C154" t="inlineStr">
         <is>
@@ -2782,7 +2782,7 @@
         </is>
       </c>
       <c r="B157" t="n">
-        <v>54417</v>
+        <v>54452</v>
       </c>
       <c r="C157" t="inlineStr">
         <is>
@@ -2812,7 +2812,7 @@
         </is>
       </c>
       <c r="B159" t="n">
-        <v>78216</v>
+        <v>78293</v>
       </c>
       <c r="C159" t="inlineStr">
         <is>
@@ -2827,7 +2827,7 @@
         </is>
       </c>
       <c r="B160" t="n">
-        <v>696</v>
+        <v>709</v>
       </c>
       <c r="C160" t="inlineStr">
         <is>
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="B164" t="n">
-        <v>10634</v>
+        <v>10655</v>
       </c>
       <c r="C164" t="inlineStr">
         <is>
@@ -2902,7 +2902,7 @@
         </is>
       </c>
       <c r="B165" t="n">
-        <v>1603</v>
+        <v>1610</v>
       </c>
       <c r="C165" t="inlineStr">
         <is>
@@ -2962,7 +2962,7 @@
         </is>
       </c>
       <c r="B169" t="n">
-        <v>245</v>
+        <v>276</v>
       </c>
       <c r="C169" t="inlineStr">
         <is>
@@ -3007,7 +3007,7 @@
         </is>
       </c>
       <c r="B172" t="n">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="C172" t="inlineStr">
         <is>
@@ -3022,7 +3022,7 @@
         </is>
       </c>
       <c r="B173" t="n">
-        <v>10868</v>
+        <v>10915</v>
       </c>
       <c r="C173" t="inlineStr">
         <is>
@@ -3037,7 +3037,7 @@
         </is>
       </c>
       <c r="B174" t="n">
-        <v>40844</v>
+        <v>41191</v>
       </c>
       <c r="C174" t="inlineStr">
         <is>
@@ -3052,7 +3052,7 @@
         </is>
       </c>
       <c r="B175" t="n">
-        <v>577045</v>
+        <v>577528</v>
       </c>
       <c r="C175" t="inlineStr">
         <is>
@@ -3082,7 +3082,7 @@
         </is>
       </c>
       <c r="B177" t="n">
-        <v>46447</v>
+        <v>46607</v>
       </c>
       <c r="C177" t="inlineStr">
         <is>
@@ -3097,7 +3097,7 @@
         </is>
       </c>
       <c r="B178" t="n">
-        <v>1593</v>
+        <v>1596</v>
       </c>
       <c r="C178" t="inlineStr">
         <is>
@@ -3112,7 +3112,7 @@
         </is>
       </c>
       <c r="B179" t="n">
-        <v>127796</v>
+        <v>127797</v>
       </c>
       <c r="C179" t="inlineStr">
         <is>
@@ -3127,7 +3127,7 @@
         </is>
       </c>
       <c r="B180" t="n">
-        <v>2724</v>
+        <v>2796</v>
       </c>
       <c r="C180" t="inlineStr">
         <is>
@@ -3142,7 +3142,7 @@
         </is>
       </c>
       <c r="B181" t="n">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="C181" t="inlineStr">
         <is>
@@ -3172,7 +3172,7 @@
         </is>
       </c>
       <c r="B183" t="n">
-        <v>2172</v>
+        <v>2189</v>
       </c>
       <c r="C183" t="inlineStr">
         <is>
@@ -3202,7 +3202,7 @@
         </is>
       </c>
       <c r="B185" t="n">
-        <v>3272</v>
+        <v>3283</v>
       </c>
       <c r="C185" t="inlineStr">
         <is>
@@ -3217,7 +3217,7 @@
         </is>
       </c>
       <c r="B186" t="n">
-        <v>1233</v>
+        <v>1239</v>
       </c>
       <c r="C186" t="inlineStr">
         <is>
@@ -3247,7 +3247,7 @@
         </is>
       </c>
       <c r="B188" t="n">
-        <v>1570</v>
+        <v>1573</v>
       </c>
       <c r="C188" t="inlineStr">
         <is>

--- a/deathmapdata.xlsx
+++ b/deathmapdata.xlsx
@@ -457,7 +457,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2642</v>
+        <v>2654</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2399</v>
+        <v>2403</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3280</v>
+        <v>3299</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -517,7 +517,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>603</v>
+        <v>618</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -547,7 +547,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>64792</v>
+        <v>65865</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -562,7 +562,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>4149</v>
+        <v>4178</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -592,7 +592,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>10260</v>
+        <v>10311</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -607,7 +607,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>4580</v>
+        <v>4617</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -637,7 +637,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>657</v>
+        <v>664</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -652,7 +652,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>11644</v>
+        <v>11755</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -682,7 +682,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2572</v>
+        <v>2592</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -697,7 +697,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>24322</v>
+        <v>24406</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -757,7 +757,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>13035</v>
+        <v>13082</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -772,7 +772,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>8551</v>
+        <v>8736</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -802,7 +802,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>408622</v>
+        <v>414399</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -832,7 +832,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>16548</v>
+        <v>16773</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -847,7 +847,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -862,7 +862,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>3209</v>
+        <v>3210</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -892,7 +892,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -907,7 +907,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -937,7 +937,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24334</v>
+        <v>24437</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -952,7 +952,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -982,7 +982,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>26659</v>
+        <v>26726</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -1012,7 +1012,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>75164</v>
+        <v>76015</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -1057,7 +1057,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>768</v>
+        <v>770</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -1072,7 +1072,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3290</v>
+        <v>3326</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -1087,7 +1087,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -1102,7 +1102,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>7218</v>
+        <v>7315</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -1117,7 +1117,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>675</v>
+        <v>694</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -1147,7 +1147,7 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>29365</v>
+        <v>29479</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -1162,7 +1162,7 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>2491</v>
+        <v>2492</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -1177,7 +1177,7 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>3499</v>
+        <v>3509</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -1222,7 +1222,7 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>18765</v>
+        <v>18907</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -1237,7 +1237,7 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>13531</v>
+        <v>13655</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -1252,7 +1252,7 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>2134</v>
+        <v>2141</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -1297,7 +1297,7 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>1172</v>
+        <v>1183</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -1327,7 +1327,7 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>3757</v>
+        <v>3795</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -1357,7 +1357,7 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>915</v>
+        <v>918</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -1372,7 +1372,7 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>105291</v>
+        <v>105792</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -1417,7 +1417,7 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>4163</v>
+        <v>4207</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -1432,7 +1432,7 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>83605</v>
+        <v>84141</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
@@ -1447,7 +1447,7 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>779</v>
+        <v>783</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
@@ -1462,7 +1462,7 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>10587</v>
+        <v>10764</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -1492,7 +1492,7 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>7578</v>
+        <v>7642</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
@@ -1507,7 +1507,7 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -1537,7 +1537,7 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -1552,7 +1552,7 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -1567,7 +1567,7 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>5367</v>
+        <v>5439</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -1582,7 +1582,7 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>27908</v>
+        <v>28173</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -1612,7 +1612,7 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>222408</v>
+        <v>230168</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -1627,7 +1627,7 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>45949</v>
+        <v>46349</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
@@ -1642,7 +1642,7 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>72875</v>
+        <v>73568</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
@@ -1657,7 +1657,7 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>15566</v>
+        <v>15640</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
@@ -1672,7 +1672,7 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>4906</v>
+        <v>4915</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>6367</v>
+        <v>6370</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
@@ -1702,7 +1702,7 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>121433</v>
+        <v>122005</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
@@ -1717,7 +1717,7 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>790</v>
+        <v>794</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
@@ -1732,7 +1732,7 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>10391</v>
+        <v>10501</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>8925</v>
+        <v>8988</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>3352</v>
+        <v>3363</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
@@ -1777,7 +1777,7 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>2781</v>
+        <v>2825</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
@@ -1792,7 +1792,7 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>1840</v>
+        <v>1851</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
@@ -1822,7 +1822,7 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>1590</v>
+        <v>1610</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
@@ -1837,7 +1837,7 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>1622</v>
+        <v>1637</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
@@ -1867,7 +1867,7 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>2154</v>
+        <v>2166</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
@@ -1882,7 +1882,7 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>7345</v>
+        <v>7390</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
@@ -1897,7 +1897,7 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>3047</v>
+        <v>3058</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
@@ -1957,7 +1957,7 @@
         </is>
       </c>
       <c r="B102" t="n">
-        <v>3956</v>
+        <v>3993</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
@@ -1987,7 +1987,7 @@
         </is>
       </c>
       <c r="B104" t="n">
-        <v>677</v>
+        <v>690</v>
       </c>
       <c r="C104" t="inlineStr">
         <is>
@@ -2002,7 +2002,7 @@
         </is>
       </c>
       <c r="B105" t="n">
-        <v>1148</v>
+        <v>1151</v>
       </c>
       <c r="C105" t="inlineStr">
         <is>
@@ -2017,7 +2017,7 @@
         </is>
       </c>
       <c r="B106" t="n">
-        <v>1551</v>
+        <v>1591</v>
       </c>
       <c r="C106" t="inlineStr">
         <is>
@@ -2047,7 +2047,7 @@
         </is>
       </c>
       <c r="B108" t="n">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="C108" t="inlineStr">
         <is>
@@ -2092,7 +2092,7 @@
         </is>
       </c>
       <c r="B111" t="n">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C111" t="inlineStr">
         <is>
@@ -2122,7 +2122,7 @@
         </is>
       </c>
       <c r="B113" t="n">
-        <v>217345</v>
+        <v>218007</v>
       </c>
       <c r="C113" t="inlineStr">
         <is>
@@ -2137,7 +2137,7 @@
         </is>
       </c>
       <c r="B114" t="n">
-        <v>5850</v>
+        <v>5892</v>
       </c>
       <c r="C114" t="inlineStr">
         <is>
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="B116" t="n">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="C116" t="inlineStr">
         <is>
@@ -2182,7 +2182,7 @@
         </is>
       </c>
       <c r="B117" t="n">
-        <v>1510</v>
+        <v>1521</v>
       </c>
       <c r="C117" t="inlineStr">
         <is>
@@ -2197,7 +2197,7 @@
         </is>
       </c>
       <c r="B118" t="n">
-        <v>9032</v>
+        <v>9043</v>
       </c>
       <c r="C118" t="inlineStr">
         <is>
@@ -2212,7 +2212,7 @@
         </is>
       </c>
       <c r="B119" t="n">
-        <v>815</v>
+        <v>818</v>
       </c>
       <c r="C119" t="inlineStr">
         <is>
@@ -2227,7 +2227,7 @@
         </is>
       </c>
       <c r="B120" t="n">
-        <v>643</v>
+        <v>667</v>
       </c>
       <c r="C120" t="inlineStr">
         <is>
@@ -2242,7 +2242,7 @@
         </is>
       </c>
       <c r="B121" t="n">
-        <v>3362</v>
+        <v>3475</v>
       </c>
       <c r="C121" t="inlineStr">
         <is>
@@ -2257,7 +2257,7 @@
         </is>
       </c>
       <c r="B122" t="n">
-        <v>17443</v>
+        <v>17501</v>
       </c>
       <c r="C122" t="inlineStr">
         <is>
@@ -2287,7 +2287,7 @@
         </is>
       </c>
       <c r="B124" t="n">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C124" t="inlineStr">
         <is>
@@ -2302,7 +2302,7 @@
         </is>
       </c>
       <c r="B125" t="n">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C125" t="inlineStr">
         <is>
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B126" t="n">
-        <v>2063</v>
+        <v>2065</v>
       </c>
       <c r="C126" t="inlineStr">
         <is>
@@ -2332,7 +2332,7 @@
         </is>
       </c>
       <c r="B127" t="n">
-        <v>757</v>
+        <v>767</v>
       </c>
       <c r="C127" t="inlineStr">
         <is>
@@ -2347,7 +2347,7 @@
         </is>
       </c>
       <c r="B128" t="n">
-        <v>2053</v>
+        <v>2071</v>
       </c>
       <c r="C128" t="inlineStr">
         <is>
@@ -2362,7 +2362,7 @@
         </is>
       </c>
       <c r="B129" t="n">
-        <v>18310</v>
+        <v>18429</v>
       </c>
       <c r="C129" t="inlineStr">
         <is>
@@ -2377,7 +2377,7 @@
         </is>
       </c>
       <c r="B130" t="n">
-        <v>6244</v>
+        <v>6252</v>
       </c>
       <c r="C130" t="inlineStr">
         <is>
@@ -2392,7 +2392,7 @@
         </is>
       </c>
       <c r="B131" t="n">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="C131" t="inlineStr">
         <is>
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="B132" t="n">
-        <v>6653</v>
+        <v>6798</v>
       </c>
       <c r="C132" t="inlineStr">
         <is>
@@ -2422,7 +2422,7 @@
         </is>
       </c>
       <c r="B133" t="n">
-        <v>62375</v>
+        <v>62674</v>
       </c>
       <c r="C133" t="inlineStr">
         <is>
@@ -2437,7 +2437,7 @@
         </is>
       </c>
       <c r="B134" t="n">
-        <v>17525</v>
+        <v>17800</v>
       </c>
       <c r="C134" t="inlineStr">
         <is>
@@ -2452,7 +2452,7 @@
         </is>
       </c>
       <c r="B135" t="n">
-        <v>68105</v>
+        <v>68482</v>
       </c>
       <c r="C135" t="inlineStr">
         <is>
@@ -2467,7 +2467,7 @@
         </is>
       </c>
       <c r="B136" t="n">
-        <v>16977</v>
+        <v>16983</v>
       </c>
       <c r="C136" t="inlineStr">
         <is>
@@ -2482,7 +2482,7 @@
         </is>
       </c>
       <c r="B137" t="n">
-        <v>480</v>
+        <v>489</v>
       </c>
       <c r="C137" t="inlineStr">
         <is>
@@ -2497,7 +2497,7 @@
         </is>
       </c>
       <c r="B138" t="n">
-        <v>28380</v>
+        <v>28616</v>
       </c>
       <c r="C138" t="inlineStr">
         <is>
@@ -2512,7 +2512,7 @@
         </is>
       </c>
       <c r="B139" t="n">
-        <v>109341</v>
+        <v>110022</v>
       </c>
       <c r="C139" t="inlineStr">
         <is>
@@ -2527,7 +2527,7 @@
         </is>
       </c>
       <c r="B140" t="n">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C140" t="inlineStr">
         <is>
@@ -2632,7 +2632,7 @@
         </is>
       </c>
       <c r="B147" t="n">
-        <v>6992</v>
+        <v>7018</v>
       </c>
       <c r="C147" t="inlineStr">
         <is>
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="B148" t="n">
-        <v>1111</v>
+        <v>1114</v>
       </c>
       <c r="C148" t="inlineStr">
         <is>
@@ -2662,7 +2662,7 @@
         </is>
       </c>
       <c r="B149" t="n">
-        <v>6432</v>
+        <v>6478</v>
       </c>
       <c r="C149" t="inlineStr">
         <is>
@@ -2722,7 +2722,7 @@
         </is>
       </c>
       <c r="B153" t="n">
-        <v>11807</v>
+        <v>11886</v>
       </c>
       <c r="C153" t="inlineStr">
         <is>
@@ -2737,7 +2737,7 @@
         </is>
       </c>
       <c r="B154" t="n">
-        <v>4269</v>
+        <v>4279</v>
       </c>
       <c r="C154" t="inlineStr">
         <is>
@@ -2767,7 +2767,7 @@
         </is>
       </c>
       <c r="B156" t="n">
-        <v>713</v>
+        <v>721</v>
       </c>
       <c r="C156" t="inlineStr">
         <is>
@@ -2782,7 +2782,7 @@
         </is>
       </c>
       <c r="B157" t="n">
-        <v>54452</v>
+        <v>54557</v>
       </c>
       <c r="C157" t="inlineStr">
         <is>
@@ -2812,7 +2812,7 @@
         </is>
       </c>
       <c r="B159" t="n">
-        <v>78293</v>
+        <v>78566</v>
       </c>
       <c r="C159" t="inlineStr">
         <is>
@@ -2827,7 +2827,7 @@
         </is>
       </c>
       <c r="B160" t="n">
-        <v>709</v>
+        <v>734</v>
       </c>
       <c r="C160" t="inlineStr">
         <is>
@@ -2842,7 +2842,7 @@
         </is>
       </c>
       <c r="B161" t="n">
-        <v>2349</v>
+        <v>2365</v>
       </c>
       <c r="C161" t="inlineStr">
         <is>
@@ -2857,7 +2857,7 @@
         </is>
       </c>
       <c r="B162" t="n">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="C162" t="inlineStr">
         <is>
@@ -2872,7 +2872,7 @@
         </is>
       </c>
       <c r="B163" t="n">
-        <v>14048</v>
+        <v>14151</v>
       </c>
       <c r="C163" t="inlineStr">
         <is>
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="B164" t="n">
-        <v>10655</v>
+        <v>10685</v>
       </c>
       <c r="C164" t="inlineStr">
         <is>
@@ -2902,7 +2902,7 @@
         </is>
       </c>
       <c r="B165" t="n">
-        <v>1610</v>
+        <v>1625</v>
       </c>
       <c r="C165" t="inlineStr">
         <is>
@@ -2962,7 +2962,7 @@
         </is>
       </c>
       <c r="B169" t="n">
-        <v>276</v>
+        <v>318</v>
       </c>
       <c r="C169" t="inlineStr">
         <is>
@@ -3007,7 +3007,7 @@
         </is>
       </c>
       <c r="B172" t="n">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="C172" t="inlineStr">
         <is>
@@ -3022,7 +3022,7 @@
         </is>
       </c>
       <c r="B173" t="n">
-        <v>10915</v>
+        <v>11122</v>
       </c>
       <c r="C173" t="inlineStr">
         <is>
@@ -3037,7 +3037,7 @@
         </is>
       </c>
       <c r="B174" t="n">
-        <v>41191</v>
+        <v>41883</v>
       </c>
       <c r="C174" t="inlineStr">
         <is>
@@ -3052,7 +3052,7 @@
         </is>
       </c>
       <c r="B175" t="n">
-        <v>577528</v>
+        <v>579275</v>
       </c>
       <c r="C175" t="inlineStr">
         <is>
@@ -3067,7 +3067,7 @@
         </is>
       </c>
       <c r="B176" t="n">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C176" t="inlineStr">
         <is>
@@ -3082,7 +3082,7 @@
         </is>
       </c>
       <c r="B177" t="n">
-        <v>46607</v>
+        <v>46950</v>
       </c>
       <c r="C177" t="inlineStr">
         <is>
@@ -3097,7 +3097,7 @@
         </is>
       </c>
       <c r="B178" t="n">
-        <v>1596</v>
+        <v>1601</v>
       </c>
       <c r="C178" t="inlineStr">
         <is>
@@ -3112,7 +3112,7 @@
         </is>
       </c>
       <c r="B179" t="n">
-        <v>127797</v>
+        <v>127830</v>
       </c>
       <c r="C179" t="inlineStr">
         <is>
@@ -3127,7 +3127,7 @@
         </is>
       </c>
       <c r="B180" t="n">
-        <v>2796</v>
+        <v>2918</v>
       </c>
       <c r="C180" t="inlineStr">
         <is>
@@ -3142,7 +3142,7 @@
         </is>
       </c>
       <c r="B181" t="n">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="C181" t="inlineStr">
         <is>
@@ -3172,7 +3172,7 @@
         </is>
       </c>
       <c r="B183" t="n">
-        <v>2189</v>
+        <v>2226</v>
       </c>
       <c r="C183" t="inlineStr">
         <is>
@@ -3202,7 +3202,7 @@
         </is>
       </c>
       <c r="B185" t="n">
-        <v>3283</v>
+        <v>3317</v>
       </c>
       <c r="C185" t="inlineStr">
         <is>
@@ -3217,7 +3217,7 @@
         </is>
       </c>
       <c r="B186" t="n">
-        <v>1239</v>
+        <v>1260</v>
       </c>
       <c r="C186" t="inlineStr">
         <is>
@@ -3232,7 +3232,7 @@
         </is>
       </c>
       <c r="B187" t="n">
-        <v>1253</v>
+        <v>1255</v>
       </c>
       <c r="C187" t="inlineStr">
         <is>
@@ -3247,7 +3247,7 @@
         </is>
       </c>
       <c r="B188" t="n">
-        <v>1573</v>
+        <v>1574</v>
       </c>
       <c r="C188" t="inlineStr">
         <is>

--- a/deathmapdata.xlsx
+++ b/deathmapdata.xlsx
@@ -457,7 +457,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2654</v>
+        <v>2673</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2403</v>
+        <v>2408</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3299</v>
+        <v>3315</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -517,7 +517,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>618</v>
+        <v>628</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -547,7 +547,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>65865</v>
+        <v>66872</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -562,7 +562,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>4178</v>
+        <v>4209</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -592,7 +592,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>10311</v>
+        <v>10351</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -607,7 +607,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>4617</v>
+        <v>4650</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -622,7 +622,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -637,7 +637,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>664</v>
+        <v>674</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -652,7 +652,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>11755</v>
+        <v>11833</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -682,7 +682,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2592</v>
+        <v>2612</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -697,7 +697,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>24406</v>
+        <v>24483</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -757,7 +757,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>13082</v>
+        <v>13151</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -772,7 +772,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>8736</v>
+        <v>8790</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -787,7 +787,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>724</v>
+        <v>734</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -802,7 +802,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>414399</v>
+        <v>419114</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -832,7 +832,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>16773</v>
+        <v>16886</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -847,7 +847,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -892,7 +892,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -907,7 +907,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -922,7 +922,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>1107</v>
+        <v>1152</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -937,7 +937,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24437</v>
+        <v>24523</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -952,7 +952,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -982,7 +982,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>26726</v>
+        <v>27004</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -1012,7 +1012,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>76015</v>
+        <v>76867</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -1042,7 +1042,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -1057,7 +1057,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>770</v>
+        <v>772</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -1072,7 +1072,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3326</v>
+        <v>3365</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -1102,7 +1102,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>7315</v>
+        <v>7388</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -1117,7 +1117,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>694</v>
+        <v>713</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -1147,7 +1147,7 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>29479</v>
+        <v>29608</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -1162,7 +1162,7 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>2492</v>
+        <v>2496</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -1177,7 +1177,7 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>3509</v>
+        <v>3517</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -1222,7 +1222,7 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>18907</v>
+        <v>19061</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -1237,7 +1237,7 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>13655</v>
+        <v>13779</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -1252,7 +1252,7 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>2141</v>
+        <v>2146</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -1297,7 +1297,7 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>1183</v>
+        <v>1193</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -1327,7 +1327,7 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>3795</v>
+        <v>3840</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -1342,7 +1342,7 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -1357,7 +1357,7 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>918</v>
+        <v>922</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -1372,7 +1372,7 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>105792</v>
+        <v>106262</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -1417,7 +1417,7 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>4207</v>
+        <v>4245</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -1432,7 +1432,7 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>84141</v>
+        <v>84659</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
@@ -1462,7 +1462,7 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>10764</v>
+        <v>10910</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -1492,7 +1492,7 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>7642</v>
+        <v>7695</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
@@ -1507,7 +1507,7 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -1537,7 +1537,7 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -1552,7 +1552,7 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -1567,7 +1567,7 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>5439</v>
+        <v>5585</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -1582,7 +1582,7 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>28173</v>
+        <v>28403</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -1612,7 +1612,7 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>230168</v>
+        <v>238270</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -1627,7 +1627,7 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>46349</v>
+        <v>46663</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
@@ -1642,7 +1642,7 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>73568</v>
+        <v>74241</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
@@ -1657,7 +1657,7 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>15640</v>
+        <v>15702</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
@@ -1672,7 +1672,7 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>4915</v>
+        <v>4918</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
@@ -1687,7 +1687,7 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>6370</v>
+        <v>6375</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
@@ -1702,7 +1702,7 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>122005</v>
+        <v>122470</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
@@ -1717,7 +1717,7 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>794</v>
+        <v>801</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
@@ -1732,7 +1732,7 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>10501</v>
+        <v>10712</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>8988</v>
+        <v>9047</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>3363</v>
+        <v>3369</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
@@ -1777,7 +1777,7 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>2825</v>
+        <v>2865</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
@@ -1792,7 +1792,7 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>1851</v>
+        <v>1865</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
@@ -1807,7 +1807,7 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>2134</v>
+        <v>2207</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
@@ -1822,7 +1822,7 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>1610</v>
+        <v>1628</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
@@ -1837,7 +1837,7 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>1637</v>
+        <v>1643</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
@@ -1867,7 +1867,7 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>2166</v>
+        <v>2197</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
@@ -1882,7 +1882,7 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>7390</v>
+        <v>7436</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
@@ -1927,7 +1927,7 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>3058</v>
+        <v>3063</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
@@ -1942,7 +1942,7 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
@@ -1957,7 +1957,7 @@
         </is>
       </c>
       <c r="B102" t="n">
-        <v>3993</v>
+        <v>4019</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
@@ -1972,7 +1972,7 @@
         </is>
       </c>
       <c r="B103" t="n">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="C103" t="inlineStr">
         <is>
@@ -1987,7 +1987,7 @@
         </is>
       </c>
       <c r="B104" t="n">
-        <v>690</v>
+        <v>701</v>
       </c>
       <c r="C104" t="inlineStr">
         <is>
@@ -2002,7 +2002,7 @@
         </is>
       </c>
       <c r="B105" t="n">
-        <v>1151</v>
+        <v>1152</v>
       </c>
       <c r="C105" t="inlineStr">
         <is>
@@ -2017,7 +2017,7 @@
         </is>
       </c>
       <c r="B106" t="n">
-        <v>1591</v>
+        <v>1632</v>
       </c>
       <c r="C106" t="inlineStr">
         <is>
@@ -2032,7 +2032,7 @@
         </is>
       </c>
       <c r="B107" t="n">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="C107" t="inlineStr">
         <is>
@@ -2047,7 +2047,7 @@
         </is>
       </c>
       <c r="B108" t="n">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="C108" t="inlineStr">
         <is>
@@ -2062,7 +2062,7 @@
         </is>
       </c>
       <c r="B109" t="n">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C109" t="inlineStr">
         <is>
@@ -2122,7 +2122,7 @@
         </is>
       </c>
       <c r="B113" t="n">
-        <v>218007</v>
+        <v>218657</v>
       </c>
       <c r="C113" t="inlineStr">
         <is>
@@ -2137,7 +2137,7 @@
         </is>
       </c>
       <c r="B114" t="n">
-        <v>5892</v>
+        <v>5929</v>
       </c>
       <c r="C114" t="inlineStr">
         <is>
@@ -2167,7 +2167,7 @@
         </is>
       </c>
       <c r="B116" t="n">
-        <v>130</v>
+        <v>160</v>
       </c>
       <c r="C116" t="inlineStr">
         <is>
@@ -2182,7 +2182,7 @@
         </is>
       </c>
       <c r="B117" t="n">
-        <v>1521</v>
+        <v>1533</v>
       </c>
       <c r="C117" t="inlineStr">
         <is>
@@ -2197,7 +2197,7 @@
         </is>
       </c>
       <c r="B118" t="n">
-        <v>9043</v>
+        <v>9057</v>
       </c>
       <c r="C118" t="inlineStr">
         <is>
@@ -2212,7 +2212,7 @@
         </is>
       </c>
       <c r="B119" t="n">
-        <v>818</v>
+        <v>820</v>
       </c>
       <c r="C119" t="inlineStr">
         <is>
@@ -2227,7 +2227,7 @@
         </is>
       </c>
       <c r="B120" t="n">
-        <v>667</v>
+        <v>682</v>
       </c>
       <c r="C120" t="inlineStr">
         <is>
@@ -2242,7 +2242,7 @@
         </is>
       </c>
       <c r="B121" t="n">
-        <v>3475</v>
+        <v>3579</v>
       </c>
       <c r="C121" t="inlineStr">
         <is>
@@ -2257,7 +2257,7 @@
         </is>
       </c>
       <c r="B122" t="n">
-        <v>17501</v>
+        <v>17547</v>
       </c>
       <c r="C122" t="inlineStr">
         <is>
@@ -2347,7 +2347,7 @@
         </is>
       </c>
       <c r="B128" t="n">
-        <v>2071</v>
+        <v>2083</v>
       </c>
       <c r="C128" t="inlineStr">
         <is>
@@ -2362,7 +2362,7 @@
         </is>
       </c>
       <c r="B129" t="n">
-        <v>18429</v>
+        <v>18797</v>
       </c>
       <c r="C129" t="inlineStr">
         <is>
@@ -2377,7 +2377,7 @@
         </is>
       </c>
       <c r="B130" t="n">
-        <v>6252</v>
+        <v>6258</v>
       </c>
       <c r="C130" t="inlineStr">
         <is>
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="B132" t="n">
-        <v>6798</v>
+        <v>6974</v>
       </c>
       <c r="C132" t="inlineStr">
         <is>
@@ -2422,7 +2422,7 @@
         </is>
       </c>
       <c r="B133" t="n">
-        <v>62674</v>
+        <v>62976</v>
       </c>
       <c r="C133" t="inlineStr">
         <is>
@@ -2437,7 +2437,7 @@
         </is>
       </c>
       <c r="B134" t="n">
-        <v>17800</v>
+        <v>18099</v>
       </c>
       <c r="C134" t="inlineStr">
         <is>
@@ -2452,7 +2452,7 @@
         </is>
       </c>
       <c r="B135" t="n">
-        <v>68482</v>
+        <v>69445</v>
       </c>
       <c r="C135" t="inlineStr">
         <is>
@@ -2467,7 +2467,7 @@
         </is>
       </c>
       <c r="B136" t="n">
-        <v>16983</v>
+        <v>16989</v>
       </c>
       <c r="C136" t="inlineStr">
         <is>
@@ -2482,7 +2482,7 @@
         </is>
       </c>
       <c r="B137" t="n">
-        <v>489</v>
+        <v>496</v>
       </c>
       <c r="C137" t="inlineStr">
         <is>
@@ -2497,7 +2497,7 @@
         </is>
       </c>
       <c r="B138" t="n">
-        <v>28616</v>
+        <v>28799</v>
       </c>
       <c r="C138" t="inlineStr">
         <is>
@@ -2512,7 +2512,7 @@
         </is>
       </c>
       <c r="B139" t="n">
-        <v>110022</v>
+        <v>110735</v>
       </c>
       <c r="C139" t="inlineStr">
         <is>
@@ -2557,7 +2557,7 @@
         </is>
       </c>
       <c r="B142" t="n">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C142" t="inlineStr">
         <is>
@@ -2572,7 +2572,7 @@
         </is>
       </c>
       <c r="B143" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C143" t="inlineStr">
         <is>
@@ -2632,7 +2632,7 @@
         </is>
       </c>
       <c r="B147" t="n">
-        <v>7018</v>
+        <v>7045</v>
       </c>
       <c r="C147" t="inlineStr">
         <is>
@@ -2647,7 +2647,7 @@
         </is>
       </c>
       <c r="B148" t="n">
-        <v>1114</v>
+        <v>1116</v>
       </c>
       <c r="C148" t="inlineStr">
         <is>
@@ -2662,7 +2662,7 @@
         </is>
       </c>
       <c r="B149" t="n">
-        <v>6478</v>
+        <v>6519</v>
       </c>
       <c r="C149" t="inlineStr">
         <is>
@@ -2722,7 +2722,7 @@
         </is>
       </c>
       <c r="B153" t="n">
-        <v>11886</v>
+        <v>11946</v>
       </c>
       <c r="C153" t="inlineStr">
         <is>
@@ -2737,7 +2737,7 @@
         </is>
       </c>
       <c r="B154" t="n">
-        <v>4279</v>
+        <v>4285</v>
       </c>
       <c r="C154" t="inlineStr">
         <is>
@@ -2767,7 +2767,7 @@
         </is>
       </c>
       <c r="B156" t="n">
-        <v>721</v>
+        <v>745</v>
       </c>
       <c r="C156" t="inlineStr">
         <is>
@@ -2782,7 +2782,7 @@
         </is>
       </c>
       <c r="B157" t="n">
-        <v>54557</v>
+        <v>54687</v>
       </c>
       <c r="C157" t="inlineStr">
         <is>
@@ -2812,7 +2812,7 @@
         </is>
       </c>
       <c r="B159" t="n">
-        <v>78566</v>
+        <v>78792</v>
       </c>
       <c r="C159" t="inlineStr">
         <is>
@@ -2827,7 +2827,7 @@
         </is>
       </c>
       <c r="B160" t="n">
-        <v>734</v>
+        <v>764</v>
       </c>
       <c r="C160" t="inlineStr">
         <is>
@@ -2857,7 +2857,7 @@
         </is>
       </c>
       <c r="B162" t="n">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="C162" t="inlineStr">
         <is>
@@ -2872,7 +2872,7 @@
         </is>
       </c>
       <c r="B163" t="n">
-        <v>14151</v>
+        <v>14173</v>
       </c>
       <c r="C163" t="inlineStr">
         <is>
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="B164" t="n">
-        <v>10685</v>
+        <v>10702</v>
       </c>
       <c r="C164" t="inlineStr">
         <is>
@@ -2902,7 +2902,7 @@
         </is>
       </c>
       <c r="B165" t="n">
-        <v>1625</v>
+        <v>1639</v>
       </c>
       <c r="C165" t="inlineStr">
         <is>
@@ -2962,7 +2962,7 @@
         </is>
       </c>
       <c r="B169" t="n">
-        <v>318</v>
+        <v>363</v>
       </c>
       <c r="C169" t="inlineStr">
         <is>
@@ -2992,7 +2992,7 @@
         </is>
       </c>
       <c r="B171" t="n">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C171" t="inlineStr">
         <is>
@@ -3007,7 +3007,7 @@
         </is>
       </c>
       <c r="B172" t="n">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="C172" t="inlineStr">
         <is>
@@ -3022,7 +3022,7 @@
         </is>
       </c>
       <c r="B173" t="n">
-        <v>11122</v>
+        <v>11277</v>
       </c>
       <c r="C173" t="inlineStr">
         <is>
@@ -3037,7 +3037,7 @@
         </is>
       </c>
       <c r="B174" t="n">
-        <v>41883</v>
+        <v>42465</v>
       </c>
       <c r="C174" t="inlineStr">
         <is>
@@ -3052,7 +3052,7 @@
         </is>
       </c>
       <c r="B175" t="n">
-        <v>579275</v>
+        <v>580901</v>
       </c>
       <c r="C175" t="inlineStr">
         <is>
@@ -3067,7 +3067,7 @@
         </is>
       </c>
       <c r="B176" t="n">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="C176" t="inlineStr">
         <is>
@@ -3082,7 +3082,7 @@
         </is>
       </c>
       <c r="B177" t="n">
-        <v>46950</v>
+        <v>47717</v>
       </c>
       <c r="C177" t="inlineStr">
         <is>
@@ -3097,7 +3097,7 @@
         </is>
       </c>
       <c r="B178" t="n">
-        <v>1601</v>
+        <v>1607</v>
       </c>
       <c r="C178" t="inlineStr">
         <is>
@@ -3112,7 +3112,7 @@
         </is>
       </c>
       <c r="B179" t="n">
-        <v>127830</v>
+        <v>127858</v>
       </c>
       <c r="C179" t="inlineStr">
         <is>
@@ -3127,7 +3127,7 @@
         </is>
       </c>
       <c r="B180" t="n">
-        <v>2918</v>
+        <v>3032</v>
       </c>
       <c r="C180" t="inlineStr">
         <is>
@@ -3142,7 +3142,7 @@
         </is>
       </c>
       <c r="B181" t="n">
-        <v>655</v>
+        <v>660</v>
       </c>
       <c r="C181" t="inlineStr">
         <is>
@@ -3172,7 +3172,7 @@
         </is>
       </c>
       <c r="B183" t="n">
-        <v>2226</v>
+        <v>2263</v>
       </c>
       <c r="C183" t="inlineStr">
         <is>
@@ -3202,7 +3202,7 @@
         </is>
       </c>
       <c r="B185" t="n">
-        <v>3317</v>
+        <v>3338</v>
       </c>
       <c r="C185" t="inlineStr">
         <is>
@@ -3217,7 +3217,7 @@
         </is>
       </c>
       <c r="B186" t="n">
-        <v>1260</v>
+        <v>1269</v>
       </c>
       <c r="C186" t="inlineStr">
         <is>
@@ -3232,7 +3232,7 @@
         </is>
       </c>
       <c r="B187" t="n">
-        <v>1255</v>
+        <v>1256</v>
       </c>
       <c r="C187" t="inlineStr">
         <is>
@@ -3247,7 +3247,7 @@
         </is>
       </c>
       <c r="B188" t="n">
-        <v>1574</v>
+        <v>1576</v>
       </c>
       <c r="C188" t="inlineStr">
         <is>
